--- a/capiq_data/in_process_data/IQ320371.xlsx
+++ b/capiq_data/in_process_data/IQ320371.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCDFB15C-46EA-48C7-BC7E-69C705FBE4AE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{020A6DDA-A3F0-4763-84C7-BEE3995AC258}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"cd7983e7-c673-4cff-9c2e-9144e339c783"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"f9d9b2c7-9701-4240-8761-3924c65526b3"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$82</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$82</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$82</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$82</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$82</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$82</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$82</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$82</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$82</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$82</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$82</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$82</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$82</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$82</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$82</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$82</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$82</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$82</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$82</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$82</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$82</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$82</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$82</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$82</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$82</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$82</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$82</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,126 @@
   </si>
   <si>
     <t>IQ_NI</t>
+  </si>
+  <si>
+    <t>FQ42000</t>
+  </si>
+  <si>
+    <t>FQ12001</t>
+  </si>
+  <si>
+    <t>FQ22001</t>
+  </si>
+  <si>
+    <t>FQ32001</t>
+  </si>
+  <si>
+    <t>FQ42001</t>
+  </si>
+  <si>
+    <t>FQ12002</t>
+  </si>
+  <si>
+    <t>FQ22002</t>
+  </si>
+  <si>
+    <t>FQ32002</t>
+  </si>
+  <si>
+    <t>FQ42002</t>
+  </si>
+  <si>
+    <t>FQ12003</t>
+  </si>
+  <si>
+    <t>FQ22003</t>
+  </si>
+  <si>
+    <t>FQ32003</t>
+  </si>
+  <si>
+    <t>FQ42003</t>
+  </si>
+  <si>
+    <t>FQ12004</t>
+  </si>
+  <si>
+    <t>FQ22004</t>
+  </si>
+  <si>
+    <t>FQ32004</t>
+  </si>
+  <si>
+    <t>FQ42004</t>
+  </si>
+  <si>
+    <t>FQ12005</t>
+  </si>
+  <si>
+    <t>FQ22005</t>
+  </si>
+  <si>
+    <t>FQ32005</t>
+  </si>
+  <si>
+    <t>FQ42005</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
   </si>
   <si>
     <t>FQ42010</t>
@@ -639,7 +759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,34 +853,34 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>37.088999999999999</v>
+        <v>53.857999999999997</v>
       </c>
       <c r="D2">
-        <v>217.48400000000001</v>
+        <v>122.36799999999999</v>
       </c>
       <c r="E2">
-        <v>130.536</v>
+        <v>55.988999999999997</v>
       </c>
       <c r="F2">
-        <v>144.50899999999999</v>
+        <v>94.277000000000001</v>
       </c>
       <c r="G2">
-        <v>270.29500000000002</v>
+        <v>75.085999999999999</v>
       </c>
       <c r="H2">
-        <v>9833.875</v>
+        <v>3171.348</v>
       </c>
       <c r="I2">
-        <v>154.482</v>
+        <v>64.024000000000001</v>
       </c>
       <c r="J2">
-        <v>4058.9870000000001</v>
+        <v>1325.663</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -772,78 +892,78 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>243.51900000000001</v>
+        <v>114.59399999999999</v>
       </c>
       <c r="O2">
-        <v>4577.5290000000005</v>
+        <v>1453.242</v>
       </c>
       <c r="P2">
-        <v>4058.9870000000001</v>
+        <v>1325.663</v>
       </c>
       <c r="Q2">
-        <v>-32.962000000000003</v>
+        <v>-24.693000000000001</v>
       </c>
       <c r="R2">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="S2">
-        <v>687</v>
+        <v>318</v>
       </c>
       <c r="T2">
-        <v>5256.3459999999995</v>
+        <v>1718.106</v>
       </c>
       <c r="U2">
-        <v>125.154</v>
+        <v>19.097000000000001</v>
       </c>
       <c r="V2">
-        <v>121.73099999999999</v>
+        <v>43.884999999999998</v>
       </c>
       <c r="W2">
         <v>0</v>
       </c>
       <c r="X2">
-        <v>-118.506</v>
+        <v>-5.7960000000000003</v>
       </c>
       <c r="Y2">
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>5.4809999999999999</v>
+        <v>-28.966000000000001</v>
       </c>
       <c r="AA2">
-        <v>37.088999999999999</v>
+        <v>53.857999999999997</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>28.963000000000001</v>
+        <v>56.052999999999997</v>
       </c>
       <c r="D3">
-        <v>225.46199999999999</v>
+        <v>128.136</v>
       </c>
       <c r="E3">
-        <v>139.48699999999999</v>
+        <v>60.048999999999999</v>
       </c>
       <c r="F3">
-        <v>160.18299999999999</v>
+        <v>94.929000000000002</v>
       </c>
       <c r="G3">
-        <v>291.92500000000001</v>
+        <v>85.412000000000006</v>
       </c>
       <c r="H3">
-        <v>9895.1579999999994</v>
+        <v>3206.306</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>4111.6930000000002</v>
+        <v>1329.675</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -852,81 +972,81 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>-6.077</v>
+        <v>-5.9880000000000004</v>
       </c>
       <c r="N3">
-        <v>126.474</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>4680.4340000000002</v>
+        <v>1486.107</v>
       </c>
       <c r="P3">
-        <v>4150.0929999999998</v>
+        <v>1329.675</v>
       </c>
       <c r="Q3">
-        <v>22.884</v>
+        <v>6.266</v>
       </c>
       <c r="R3">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>5214.7240000000002</v>
+        <v>1720.1990000000001</v>
       </c>
       <c r="U3">
-        <v>148.03800000000001</v>
+        <v>25.363</v>
       </c>
       <c r="V3">
-        <v>114.842</v>
+        <v>73.182000000000002</v>
       </c>
       <c r="W3">
-        <v>-89.501000000000005</v>
+        <v>-52.023000000000003</v>
       </c>
       <c r="X3">
-        <v>-38.71</v>
+        <v>-35.546999999999997</v>
       </c>
       <c r="Y3">
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>-27.03</v>
+        <v>-24.047999999999998</v>
       </c>
       <c r="AA3">
-        <v>28.962</v>
+        <v>56.052999999999997</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>38.707999999999998</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>212.54900000000001</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>134.98599999999999</v>
+        <v>57.793999999999997</v>
       </c>
       <c r="F4">
-        <v>156.999</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>279.053</v>
+        <v>141.08699999999999</v>
       </c>
       <c r="H4">
-        <v>9704.68</v>
+        <v>3234.9110000000001</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>3967.4690000000001</v>
+        <v>1330.7270000000001</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -938,78 +1058,78 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>100.99299999999999</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>4497.9759999999997</v>
+        <v>1485.9680000000001</v>
       </c>
       <c r="P4">
-        <v>3980.3690000000001</v>
+        <v>1330.7270000000001</v>
       </c>
       <c r="Q4">
-        <v>-3.9710000000000001</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>5206.7039999999997</v>
+        <v>1748.943</v>
       </c>
       <c r="U4">
-        <v>144.06700000000001</v>
+        <v>83.293000000000006</v>
       </c>
       <c r="V4">
-        <v>100.99299999999999</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>-88.078999999999994</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>-271.82299999999998</v>
+        <v>0</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>186.631</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>38.710999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>54.982999999999997</v>
+        <v>59.25</v>
       </c>
       <c r="D5">
-        <v>214.98400000000001</v>
+        <v>140.98400000000001</v>
       </c>
       <c r="E5">
-        <v>135.71700000000001</v>
+        <v>60.075000000000003</v>
       </c>
       <c r="F5">
-        <v>156.387</v>
+        <v>113.621</v>
       </c>
       <c r="G5">
-        <v>322.01499999999999</v>
+        <v>93.728999999999999</v>
       </c>
       <c r="H5">
-        <v>9580.5509999999995</v>
+        <v>3284.2049999999999</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>3979.663</v>
+        <v>1329.3440000000001</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -1021,78 +1141,78 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>93.69</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>4538.6549999999997</v>
+        <v>1526.086</v>
       </c>
       <c r="P5">
-        <v>3985.2629999999999</v>
+        <v>1329.3440000000001</v>
       </c>
       <c r="Q5">
-        <v>36.131</v>
+        <v>-49.639000000000003</v>
       </c>
       <c r="R5">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>5041.8959999999997</v>
+        <v>1758.1189999999999</v>
       </c>
       <c r="U5">
-        <v>180.19800000000001</v>
+        <v>33.654000000000003</v>
       </c>
       <c r="V5">
-        <v>152.08000000000001</v>
+        <v>105.66800000000001</v>
       </c>
       <c r="W5">
-        <v>-88.093999999999994</v>
+        <v>-52.706000000000003</v>
       </c>
       <c r="X5">
-        <v>-81.887</v>
+        <v>-52.079000000000001</v>
       </c>
       <c r="Y5">
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>28.539000000000001</v>
+        <v>-50.027000000000001</v>
       </c>
       <c r="AA5">
-        <v>54.981000000000002</v>
+        <v>59.25</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>46.396999999999998</v>
+        <v>61.881999999999998</v>
       </c>
       <c r="D6">
-        <v>215.33500000000001</v>
+        <v>127.473</v>
       </c>
       <c r="E6">
-        <v>164.053</v>
+        <v>48.073999999999998</v>
       </c>
       <c r="F6">
-        <v>158.01499999999999</v>
+        <v>100.999</v>
       </c>
       <c r="G6">
-        <v>280.73500000000001</v>
+        <v>141.92099999999999</v>
       </c>
       <c r="H6">
-        <v>9628.7620000000006</v>
+        <v>3384.779</v>
       </c>
       <c r="I6">
-        <v>125.544</v>
+        <v>68.322999999999993</v>
       </c>
       <c r="J6">
-        <v>4114.3850000000002</v>
+        <v>1328.079</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -1104,78 +1224,78 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>217.703</v>
+        <v>125.66800000000001</v>
       </c>
       <c r="O6">
-        <v>4653.5450000000001</v>
+        <v>1486.32</v>
       </c>
       <c r="P6">
-        <v>4114.3850000000002</v>
+        <v>1328.079</v>
       </c>
       <c r="Q6">
-        <v>-67.316000000000003</v>
+        <v>60.192999999999998</v>
       </c>
       <c r="R6">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="S6">
-        <v>685</v>
+        <v>355</v>
       </c>
       <c r="T6">
-        <v>4975.2169999999996</v>
+        <v>1898.4590000000001</v>
       </c>
       <c r="U6">
-        <v>112.88200000000001</v>
+        <v>93.846999999999994</v>
       </c>
       <c r="V6">
-        <v>80.697999999999993</v>
+        <v>33.728000000000002</v>
       </c>
       <c r="W6">
         <v>0</v>
       </c>
       <c r="X6">
-        <v>-47.704999999999998</v>
+        <v>70.914000000000001</v>
       </c>
       <c r="Y6">
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>-26.994</v>
+        <v>-7.81</v>
       </c>
       <c r="AA6">
-        <v>46.396999999999998</v>
+        <v>61.881999999999998</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>53.637999999999998</v>
+        <v>60.893999999999998</v>
       </c>
       <c r="D7">
-        <v>223.51499999999999</v>
+        <v>127.42</v>
       </c>
       <c r="E7">
-        <v>136.244</v>
+        <v>61.621000000000002</v>
       </c>
       <c r="F7">
-        <v>166.988</v>
+        <v>97.272000000000006</v>
       </c>
       <c r="G7">
-        <v>387.14400000000001</v>
+        <v>88.087000000000003</v>
       </c>
       <c r="H7">
-        <v>9826.5650000000005</v>
+        <v>3412.9430000000002</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>3805.058</v>
+        <v>1337.58</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -1184,81 +1304,81 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>-272.93</v>
+        <v>-1.6990000000000001</v>
       </c>
       <c r="N7">
-        <v>201.48699999999999</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>4447.9170000000004</v>
+        <v>1517.6220000000001</v>
       </c>
       <c r="P7">
-        <v>3913.6579999999999</v>
+        <v>1337.58</v>
       </c>
       <c r="Q7">
-        <v>129.41800000000001</v>
+        <v>-67.381</v>
       </c>
       <c r="R7">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7">
-        <v>5378.6480000000001</v>
+        <v>1895.3209999999999</v>
       </c>
       <c r="U7">
-        <v>242.3</v>
+        <v>26.466000000000001</v>
       </c>
       <c r="V7">
-        <v>156.874</v>
+        <v>77.953000000000003</v>
       </c>
       <c r="W7">
-        <v>-92.158000000000001</v>
+        <v>-58.798000000000002</v>
       </c>
       <c r="X7">
-        <v>5.0229999999999997</v>
+        <v>-45.771999999999998</v>
       </c>
       <c r="Y7">
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>13.531000000000001</v>
+        <v>-20.952999999999999</v>
       </c>
       <c r="AA7">
-        <v>53.637999999999998</v>
+        <v>60.893999999999998</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>69.111999999999995</v>
+        <v>61.055</v>
       </c>
       <c r="D8">
-        <v>222.04400000000001</v>
+        <v>129.892</v>
       </c>
       <c r="E8">
-        <v>131.48699999999999</v>
+        <v>65.474000000000004</v>
       </c>
       <c r="F8">
-        <v>166.38900000000001</v>
+        <v>101.584</v>
       </c>
       <c r="G8">
-        <v>518.01599999999996</v>
+        <v>92.933000000000007</v>
       </c>
       <c r="H8">
-        <v>10030.071</v>
+        <v>3546.527</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>4150.116</v>
+        <v>1477.057</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -1270,78 +1390,78 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>140.483</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>4729.9229999999998</v>
+        <v>1641.048</v>
       </c>
       <c r="P8">
-        <v>4191.7160000000003</v>
+        <v>1477.057</v>
       </c>
       <c r="Q8">
-        <v>141.429</v>
+        <v>0.99299999999999999</v>
       </c>
       <c r="R8">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8">
-        <v>5300.1480000000001</v>
+        <v>1905.479</v>
       </c>
       <c r="U8">
-        <v>383.72899999999998</v>
+        <v>27.459</v>
       </c>
       <c r="V8">
-        <v>118.55800000000001</v>
+        <v>66.400000000000006</v>
       </c>
       <c r="W8">
-        <v>-92.149000000000001</v>
+        <v>-58.878</v>
       </c>
       <c r="X8">
-        <v>135.27500000000001</v>
+        <v>71.197999999999993</v>
       </c>
       <c r="Y8">
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>-43.46</v>
+        <v>-37.012</v>
       </c>
       <c r="AA8">
-        <v>69.113</v>
+        <v>61.055999999999997</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>54.942</v>
+        <v>60.756999999999998</v>
       </c>
       <c r="D9">
-        <v>224.95500000000001</v>
+        <v>128.95699999999999</v>
       </c>
       <c r="E9">
-        <v>138.55799999999999</v>
+        <v>56.646999999999998</v>
       </c>
       <c r="F9">
-        <v>167.529</v>
+        <v>100.371</v>
       </c>
       <c r="G9">
-        <v>627.18700000000001</v>
+        <v>100.142</v>
       </c>
       <c r="H9">
-        <v>10115.976000000001</v>
+        <v>3688.607</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>4186.491</v>
+        <v>1554.193</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -1353,78 +1473,78 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>126.556</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>4777.7380000000003</v>
+        <v>1780.539</v>
       </c>
       <c r="P9">
-        <v>4218.1909999999998</v>
+        <v>1554.193</v>
       </c>
       <c r="Q9">
-        <v>45.8</v>
+        <v>16.036000000000001</v>
       </c>
       <c r="R9">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
-        <v>5338.2380000000003</v>
+        <v>1908.068</v>
       </c>
       <c r="U9">
-        <v>429.529</v>
+        <v>43.494999999999997</v>
       </c>
       <c r="V9">
-        <v>132.15799999999999</v>
+        <v>86.403999999999996</v>
       </c>
       <c r="W9">
-        <v>-100.785</v>
+        <v>-58.945999999999998</v>
       </c>
       <c r="X9">
-        <v>-101.191</v>
+        <v>45.777999999999999</v>
       </c>
       <c r="Y9">
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>37.987000000000002</v>
+        <v>-54.512</v>
       </c>
       <c r="AA9">
-        <v>54.941000000000003</v>
+        <v>60.756</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>88.381</v>
+        <v>62.962000000000003</v>
       </c>
       <c r="D10">
-        <v>211.393</v>
+        <v>94.027000000000001</v>
       </c>
       <c r="E10">
-        <v>171.54</v>
+        <v>56.484000000000002</v>
       </c>
       <c r="F10">
-        <v>150.30500000000001</v>
+        <v>64.995999999999995</v>
       </c>
       <c r="G10">
-        <v>316.815</v>
+        <v>92.445999999999998</v>
       </c>
       <c r="H10">
-        <v>9751.2340000000004</v>
+        <v>3758.35</v>
       </c>
       <c r="I10">
-        <v>111.881</v>
+        <v>94.784000000000006</v>
       </c>
       <c r="J10">
-        <v>4195.317</v>
+        <v>1576.982</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1436,78 +1556,78 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>208.399</v>
+        <v>154.43</v>
       </c>
       <c r="O10">
-        <v>4737.6779999999999</v>
+        <v>1755.61</v>
       </c>
       <c r="P10">
-        <v>4195.317</v>
+        <v>1576.982</v>
       </c>
       <c r="Q10">
-        <v>-287.654</v>
+        <v>-7.5330000000000004</v>
       </c>
       <c r="R10">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="S10">
-        <v>635</v>
+        <v>375</v>
       </c>
       <c r="T10">
-        <v>5013.5559999999996</v>
+        <v>2002.74</v>
       </c>
       <c r="U10">
-        <v>141.875</v>
+        <v>35.962000000000003</v>
       </c>
       <c r="V10">
-        <v>71.463999999999999</v>
+        <v>48.173999999999999</v>
       </c>
       <c r="W10">
         <v>0</v>
       </c>
       <c r="X10">
-        <v>-438.16800000000001</v>
+        <v>-11.365</v>
       </c>
       <c r="Y10">
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>-1.22</v>
+        <v>-18.071999999999999</v>
       </c>
       <c r="AA10">
-        <v>88.381</v>
+        <v>62.962000000000003</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>67.77</v>
+        <v>70.960999999999999</v>
       </c>
       <c r="D11">
-        <v>223.30799999999999</v>
+        <v>132.846</v>
       </c>
       <c r="E11">
-        <v>164.51</v>
+        <v>53.697000000000003</v>
       </c>
       <c r="F11">
-        <v>167.02099999999999</v>
+        <v>100.09</v>
       </c>
       <c r="G11">
-        <v>331.60399999999998</v>
+        <v>109.35</v>
       </c>
       <c r="H11">
-        <v>10061.834999999999</v>
+        <v>3895.0639999999999</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>4451.0730000000003</v>
+        <v>1689.347</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -1516,81 +1636,81 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>-201.12799999999999</v>
+        <v>-13.368</v>
       </c>
       <c r="N11">
-        <v>99.156000000000006</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>5019.723</v>
+        <v>1966.3720000000001</v>
       </c>
       <c r="P11">
-        <v>4451.0730000000003</v>
+        <v>1689.347</v>
       </c>
       <c r="Q11">
-        <v>25.018999999999998</v>
+        <v>19.690999999999999</v>
       </c>
       <c r="R11">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11">
-        <v>5042.1120000000001</v>
+        <v>1928.692</v>
       </c>
       <c r="U11">
-        <v>166.89400000000001</v>
+        <v>55.652999999999999</v>
       </c>
       <c r="V11">
-        <v>149.88499999999999</v>
+        <v>84.813999999999993</v>
       </c>
       <c r="W11">
-        <v>-97.744</v>
+        <v>-61.1</v>
       </c>
       <c r="X11">
-        <v>36.731000000000002</v>
+        <v>67.599999999999994</v>
       </c>
       <c r="Y11">
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>-96.29</v>
+        <v>-34.996000000000002</v>
       </c>
       <c r="AA11">
-        <v>67.77</v>
+        <v>70.960999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>51.139000000000003</v>
+        <v>61.345999999999997</v>
       </c>
       <c r="D12">
-        <v>214.08799999999999</v>
+        <v>128.405</v>
       </c>
       <c r="E12">
-        <v>160.398</v>
+        <v>54.185000000000002</v>
       </c>
       <c r="F12">
-        <v>160.535</v>
+        <v>98.966999999999999</v>
       </c>
       <c r="G12">
-        <v>338.24799999999999</v>
+        <v>112.134</v>
       </c>
       <c r="H12">
-        <v>9988.4709999999995</v>
+        <v>4012.3319999999999</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>4464.7740000000003</v>
+        <v>1771.133</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1602,78 +1722,78 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>98.325999999999993</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>5036.7039999999997</v>
+        <v>2054.4520000000002</v>
       </c>
       <c r="P12">
-        <v>4464.7740000000003</v>
+        <v>1771.133</v>
       </c>
       <c r="Q12">
-        <v>-10.444000000000001</v>
+        <v>2.2959999999999998</v>
       </c>
       <c r="R12">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="T12">
-        <v>4951.7669999999998</v>
+        <v>1957.88</v>
       </c>
       <c r="U12">
-        <v>156.44999999999999</v>
+        <v>57.948999999999998</v>
       </c>
       <c r="V12">
-        <v>115.643</v>
+        <v>70.144999999999996</v>
       </c>
       <c r="W12">
-        <v>-101.42</v>
+        <v>-63.475000000000001</v>
       </c>
       <c r="X12">
-        <v>-190.232</v>
+        <v>66.323999999999998</v>
       </c>
       <c r="Y12">
         <v>0</v>
       </c>
       <c r="Z12">
-        <v>85.813000000000002</v>
+        <v>-13.47</v>
       </c>
       <c r="AA12">
-        <v>51.139000000000003</v>
+        <v>61.344999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>55.762999999999998</v>
+        <v>91.503</v>
       </c>
       <c r="D13">
-        <v>222.38800000000001</v>
+        <v>131.37899999999999</v>
       </c>
       <c r="E13">
-        <v>160.126</v>
+        <v>61.162999999999997</v>
       </c>
       <c r="F13">
-        <v>167.15</v>
+        <v>101.568</v>
       </c>
       <c r="G13">
-        <v>626.45600000000002</v>
+        <v>168.12299999999999</v>
       </c>
       <c r="H13">
-        <v>9953.0789999999997</v>
+        <v>3983.6610000000001</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>4380.652</v>
+        <v>1580.624</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1685,78 +1805,78 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>98.334000000000003</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>5027.0240000000003</v>
+        <v>1880.761</v>
       </c>
       <c r="P13">
-        <v>4380.652</v>
+        <v>1580.624</v>
       </c>
       <c r="Q13">
-        <v>245.28</v>
+        <v>49.011000000000003</v>
       </c>
       <c r="R13">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
       <c r="T13">
-        <v>4926.0550000000003</v>
+        <v>2102.9</v>
       </c>
       <c r="U13">
-        <v>401.73</v>
+        <v>106.96</v>
       </c>
       <c r="V13">
-        <v>268.31299999999999</v>
+        <v>82.58</v>
       </c>
       <c r="W13">
-        <v>-100.59</v>
+        <v>-59.238</v>
       </c>
       <c r="X13">
-        <v>-190.77099999999999</v>
+        <v>-131.624</v>
       </c>
       <c r="Y13">
         <v>0</v>
       </c>
       <c r="Z13">
-        <v>91.820999999999998</v>
+        <v>37.473999999999997</v>
       </c>
       <c r="AA13">
-        <v>55.762999999999998</v>
+        <v>91.504000000000005</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>61.609000000000002</v>
+        <v>84.069000000000003</v>
       </c>
       <c r="D14">
-        <v>206.047</v>
+        <v>137.429</v>
       </c>
       <c r="E14">
-        <v>164.32599999999999</v>
+        <v>57.08</v>
       </c>
       <c r="F14">
-        <v>149.62700000000001</v>
+        <v>106.212</v>
       </c>
       <c r="G14">
-        <v>383.39400000000001</v>
+        <v>105.36799999999999</v>
       </c>
       <c r="H14">
-        <v>9663.6299999999992</v>
+        <v>4641.0919999999996</v>
       </c>
       <c r="I14">
-        <v>124.29</v>
+        <v>92.239000000000004</v>
       </c>
       <c r="J14">
-        <v>4221.4009999999998</v>
+        <v>2154.9479999999999</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1768,78 +1888,78 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>228.786</v>
+        <v>158.208</v>
       </c>
       <c r="O14">
-        <v>4807.951</v>
+        <v>2405.3290000000002</v>
       </c>
       <c r="P14">
-        <v>4221.4009999999998</v>
+        <v>2154.9479999999999</v>
       </c>
       <c r="Q14">
-        <v>-252.96199999999999</v>
+        <v>-58.671999999999997</v>
       </c>
       <c r="R14">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="S14">
-        <v>597</v>
+        <v>423</v>
       </c>
       <c r="T14">
-        <v>4855.6790000000001</v>
+        <v>2235.7629999999999</v>
       </c>
       <c r="U14">
-        <v>148.768</v>
+        <v>48.287999999999997</v>
       </c>
       <c r="V14">
-        <v>36.194000000000003</v>
+        <v>71.093000000000004</v>
       </c>
       <c r="W14">
         <v>0</v>
       </c>
       <c r="X14">
-        <v>-291.10500000000002</v>
+        <v>343.75900000000001</v>
       </c>
       <c r="Y14">
         <v>0</v>
       </c>
       <c r="Z14">
-        <v>49.478999999999999</v>
+        <v>-9.2119999999999997</v>
       </c>
       <c r="AA14">
-        <v>61.609000000000002</v>
+        <v>84.069000000000003</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>87</v>
+        <v>71.388999999999996</v>
       </c>
       <c r="D15">
-        <v>229.892</v>
+        <v>154.62899999999999</v>
       </c>
       <c r="E15">
-        <v>158.52799999999999</v>
+        <v>55.94</v>
       </c>
       <c r="F15">
-        <v>171.161</v>
+        <v>119.151</v>
       </c>
       <c r="G15">
-        <v>463.339</v>
+        <v>111.627</v>
       </c>
       <c r="H15">
-        <v>9833.6970000000001</v>
+        <v>4767.1409999999996</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>4380.3459999999995</v>
+        <v>2247.4609999999998</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1848,81 +1968,81 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>-78.528999999999996</v>
+        <v>-26.856999999999999</v>
       </c>
       <c r="N15">
-        <v>104.67</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>5000.0479999999998</v>
+        <v>2484.1759999999999</v>
       </c>
       <c r="P15">
-        <v>4380.3459999999995</v>
+        <v>2247.4609999999998</v>
       </c>
       <c r="Q15">
-        <v>120.143</v>
+        <v>7.399</v>
       </c>
       <c r="R15">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="T15">
-        <v>4833.6490000000003</v>
+        <v>2282.9650000000001</v>
       </c>
       <c r="U15">
-        <v>268.911</v>
+        <v>55.686999999999998</v>
       </c>
       <c r="V15">
-        <v>181.51300000000001</v>
+        <v>107.501</v>
       </c>
       <c r="W15">
-        <v>-106.762</v>
+        <v>-65.968999999999994</v>
       </c>
       <c r="X15">
-        <v>-55.543999999999997</v>
+        <v>-50.203000000000003</v>
       </c>
       <c r="Y15">
         <v>0</v>
       </c>
       <c r="Z15">
-        <v>33.262</v>
+        <v>31.734000000000002</v>
       </c>
       <c r="AA15">
-        <v>87</v>
+        <v>71.388999999999996</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>89.512</v>
+        <v>71.430000000000007</v>
       </c>
       <c r="D16">
-        <v>246.386</v>
+        <v>130.69300000000001</v>
       </c>
       <c r="E16">
-        <v>162.148</v>
+        <v>48.341999999999999</v>
       </c>
       <c r="F16">
-        <v>183.185</v>
+        <v>98.317999999999998</v>
       </c>
       <c r="G16">
-        <v>463.13099999999997</v>
+        <v>103.688</v>
       </c>
       <c r="H16">
-        <v>10190.371999999999</v>
+        <v>4321.6880000000001</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>4730.3710000000001</v>
+        <v>1838.972</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1934,78 +2054,78 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>104.786</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>5350.29</v>
+        <v>2054.3159999999998</v>
       </c>
       <c r="P16">
-        <v>4730.3710000000001</v>
+        <v>1838.972</v>
       </c>
       <c r="Q16">
-        <v>-76.727999999999994</v>
+        <v>-0.34100000000000003</v>
       </c>
       <c r="R16">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
       <c r="T16">
-        <v>4840.0820000000003</v>
+        <v>2267.3719999999998</v>
       </c>
       <c r="U16">
-        <v>192.18299999999999</v>
+        <v>55.345999999999997</v>
       </c>
       <c r="V16">
-        <v>144.584</v>
+        <v>83.335999999999999</v>
       </c>
       <c r="W16">
-        <v>-106.937</v>
+        <v>-66.209000000000003</v>
       </c>
       <c r="X16">
-        <v>-55.158999999999999</v>
+        <v>-227.453</v>
       </c>
       <c r="Y16">
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>41.048999999999999</v>
+        <v>-47.146000000000001</v>
       </c>
       <c r="AA16">
-        <v>89.512</v>
+        <v>71.430000000000007</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>194.708</v>
+        <v>78.510999999999996</v>
       </c>
       <c r="D17">
-        <v>255.65100000000001</v>
+        <v>129.517</v>
       </c>
       <c r="E17">
-        <v>161.15799999999999</v>
+        <v>51.503</v>
       </c>
       <c r="F17">
-        <v>190.06100000000001</v>
+        <v>98.959000000000003</v>
       </c>
       <c r="G17">
-        <v>367.14800000000002</v>
+        <v>185.53399999999999</v>
       </c>
       <c r="H17">
-        <v>10293.210999999999</v>
+        <v>4377.1180000000004</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>4697.317</v>
+        <v>1819.2370000000001</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -2017,78 +2137,78 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>104.858</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>5366.1009999999997</v>
+        <v>2063.2759999999998</v>
       </c>
       <c r="P17">
-        <v>4697.317</v>
+        <v>1819.2370000000001</v>
       </c>
       <c r="Q17">
-        <v>-37.993000000000002</v>
+        <v>78.685000000000002</v>
       </c>
       <c r="R17">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="S17">
         <v>0</v>
       </c>
       <c r="T17">
-        <v>4927.1099999999997</v>
+        <v>2313.8420000000001</v>
       </c>
       <c r="U17">
-        <v>154.19</v>
+        <v>134.03100000000001</v>
       </c>
       <c r="V17">
-        <v>183.90799999999999</v>
+        <v>103.236</v>
       </c>
       <c r="W17">
-        <v>-107.05</v>
+        <v>-66.302000000000007</v>
       </c>
       <c r="X17">
-        <v>-321.78699999999998</v>
+        <v>-4.2169999999999996</v>
       </c>
       <c r="Y17">
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>18.8</v>
+        <v>-17.207999999999998</v>
       </c>
       <c r="AA17">
-        <v>194.708</v>
+        <v>78.510999999999996</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>52.780999999999999</v>
+        <v>75.807000000000002</v>
       </c>
       <c r="D18">
-        <v>265.09800000000001</v>
+        <v>133.279</v>
       </c>
       <c r="E18">
-        <v>172.386</v>
+        <v>52.182000000000002</v>
       </c>
       <c r="F18">
-        <v>194.00299999999999</v>
+        <v>101.426</v>
       </c>
       <c r="G18">
-        <v>359.70800000000003</v>
+        <v>90.402000000000001</v>
       </c>
       <c r="H18">
-        <v>10261.4</v>
+        <v>4749.5969999999998</v>
       </c>
       <c r="I18">
-        <v>129.50899999999999</v>
+        <v>97.951999999999998</v>
       </c>
       <c r="J18">
-        <v>4595.97</v>
+        <v>2118.6219999999998</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -2100,161 +2220,161 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>240.65199999999999</v>
+        <v>169.441</v>
       </c>
       <c r="O18">
-        <v>5268.1549999999997</v>
+        <v>2406.306</v>
       </c>
       <c r="P18">
-        <v>4595.97</v>
+        <v>2118.6219999999998</v>
       </c>
       <c r="Q18">
-        <v>33.131999999999998</v>
+        <v>-95.811000000000007</v>
       </c>
       <c r="R18">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="S18">
-        <v>580</v>
+        <v>469</v>
       </c>
       <c r="T18">
-        <v>4993.2449999999999</v>
+        <v>2343.2910000000002</v>
       </c>
       <c r="U18">
-        <v>187.322</v>
+        <v>38.22</v>
       </c>
       <c r="V18">
-        <v>119.33799999999999</v>
+        <v>71.102999999999994</v>
       </c>
       <c r="W18">
-        <v>-107.124</v>
+        <v>0</v>
       </c>
       <c r="X18">
-        <v>-285.00400000000002</v>
+        <v>206.226</v>
       </c>
       <c r="Y18">
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>39.942999999999998</v>
+        <v>-140.39699999999999</v>
       </c>
       <c r="AA18">
-        <v>52.780999999999999</v>
+        <v>75.807000000000002</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>310.34199999999998</v>
+        <v>86.78</v>
       </c>
       <c r="D19">
-        <v>284.59199999999998</v>
+        <v>140.072</v>
       </c>
       <c r="E19">
-        <v>178.36699999999999</v>
+        <v>57.366</v>
       </c>
       <c r="F19">
-        <v>211.06399999999999</v>
+        <v>104.07899999999999</v>
       </c>
       <c r="G19">
-        <v>406.54399999999998</v>
+        <v>153.50700000000001</v>
       </c>
       <c r="H19">
-        <v>11733.888000000001</v>
+        <v>4838.6220000000003</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>5721.2510000000002</v>
+        <v>1895.3520000000001</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>-94.102000000000004</v>
       </c>
       <c r="M19">
-        <v>-556.44100000000003</v>
+        <v>-25.933</v>
       </c>
       <c r="N19">
-        <v>111.357</v>
+        <v>318.09199999999998</v>
       </c>
       <c r="O19">
-        <v>6435.4290000000001</v>
+        <v>2444.0120000000002</v>
       </c>
       <c r="P19">
-        <v>5721.2510000000002</v>
+        <v>2141.5520000000001</v>
       </c>
       <c r="Q19">
-        <v>33.655000000000001</v>
+        <v>57.920999999999999</v>
       </c>
       <c r="R19">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
       <c r="T19">
-        <v>5298.4589999999998</v>
+        <v>2394.61</v>
       </c>
       <c r="U19">
-        <v>220.977</v>
+        <v>96.141000000000005</v>
       </c>
       <c r="V19">
-        <v>163.09</v>
+        <v>111.672</v>
       </c>
       <c r="W19">
-        <v>-113.4</v>
+        <v>-71.497</v>
       </c>
       <c r="X19">
-        <v>478.02100000000002</v>
+        <v>-9.3569999999999993</v>
       </c>
       <c r="Y19">
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>-119.65300000000001</v>
+        <v>-62.156999999999996</v>
       </c>
       <c r="AA19">
-        <v>310.34199999999998</v>
+        <v>86.78</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>127</v>
+        <v>83.837000000000003</v>
       </c>
       <c r="D20">
-        <v>294.97699999999998</v>
+        <v>134.82400000000001</v>
       </c>
       <c r="E20">
-        <v>177.768</v>
+        <v>59.305</v>
       </c>
       <c r="F20">
-        <v>219.15600000000001</v>
+        <v>102.996</v>
       </c>
       <c r="G20">
-        <v>376.9</v>
+        <v>106.682</v>
       </c>
       <c r="H20">
-        <v>11467.304</v>
+        <v>4989.8220000000001</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>5537.7719999999999</v>
+        <v>2181.1260000000002</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -2266,78 +2386,78 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>112.804</v>
+        <v>85.4</v>
       </c>
       <c r="O20">
-        <v>6240.3239999999996</v>
+        <v>2562.125</v>
       </c>
       <c r="P20">
-        <v>5539.1210000000001</v>
+        <v>2266.5259999999998</v>
       </c>
       <c r="Q20">
-        <v>-75.144999999999996</v>
+        <v>-48.764000000000003</v>
       </c>
       <c r="R20">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="S20">
         <v>0</v>
       </c>
       <c r="T20">
-        <v>5226.9799999999996</v>
+        <v>2427.6970000000001</v>
       </c>
       <c r="U20">
-        <v>145.83199999999999</v>
+        <v>47.377000000000002</v>
       </c>
       <c r="V20">
-        <v>122.905</v>
+        <v>82.352999999999994</v>
       </c>
       <c r="W20">
-        <v>-113.623</v>
+        <v>-71.891999999999996</v>
       </c>
       <c r="X20">
-        <v>-326.02499999999998</v>
+        <v>57.533999999999999</v>
       </c>
       <c r="Y20">
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>69.436000000000007</v>
+        <v>-64.927000000000007</v>
       </c>
       <c r="AA20">
-        <v>127</v>
+        <v>83.837999999999994</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>77.572000000000003</v>
+        <v>85.343999999999994</v>
       </c>
       <c r="D21">
-        <v>288.827</v>
+        <v>138.56</v>
       </c>
       <c r="E21">
-        <v>172.75800000000001</v>
+        <v>64.034000000000006</v>
       </c>
       <c r="F21">
-        <v>214.428</v>
+        <v>105.955</v>
       </c>
       <c r="G21">
-        <v>377.07100000000003</v>
+        <v>133.97399999999999</v>
       </c>
       <c r="H21">
-        <v>11413.984</v>
+        <v>5168.4759999999997</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>5498.5860000000002</v>
+        <v>2287.029</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -2349,78 +2469,78 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>113.35899999999999</v>
+        <v>148.00299999999999</v>
       </c>
       <c r="O21">
-        <v>6231.5870000000004</v>
+        <v>2699.5279999999998</v>
       </c>
       <c r="P21">
-        <v>5500.4650000000001</v>
+        <v>2357.1289999999999</v>
       </c>
       <c r="Q21">
-        <v>35.081000000000003</v>
+        <v>22.562999999999999</v>
       </c>
       <c r="R21">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="S21">
         <v>0</v>
       </c>
       <c r="T21">
-        <v>5182.3969999999999</v>
+        <v>2468.9479999999999</v>
       </c>
       <c r="U21">
-        <v>180.91300000000001</v>
+        <v>69.94</v>
       </c>
       <c r="V21">
-        <v>176.64699999999999</v>
+        <v>126.307</v>
       </c>
       <c r="W21">
-        <v>-113.72199999999999</v>
+        <v>-72.052000000000007</v>
       </c>
       <c r="X21">
-        <v>-155.56399999999999</v>
+        <v>55.868000000000002</v>
       </c>
       <c r="Y21">
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>36.685000000000002</v>
+        <v>-74.332999999999998</v>
       </c>
       <c r="AA21">
-        <v>77.572000000000003</v>
+        <v>85.343000000000004</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>379.20100000000002</v>
+        <v>107.667</v>
       </c>
       <c r="D22">
-        <v>301.31299999999999</v>
+        <v>150.161</v>
       </c>
       <c r="E22">
-        <v>175.25200000000001</v>
+        <v>64.328999999999994</v>
       </c>
       <c r="F22">
-        <v>220.584</v>
+        <v>116.874</v>
       </c>
       <c r="G22">
-        <v>364.786</v>
+        <v>140.602</v>
       </c>
       <c r="H22">
-        <v>11344.171</v>
+        <v>5534.6360000000004</v>
       </c>
       <c r="I22">
-        <v>150.059</v>
+        <v>119.605</v>
       </c>
       <c r="J22">
-        <v>5376.31</v>
+        <v>2691.1959999999999</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -2432,161 +2552,161 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>265.24099999999999</v>
+        <v>197.773</v>
       </c>
       <c r="O22">
-        <v>6075.5110000000004</v>
+        <v>3024.578</v>
       </c>
       <c r="P22">
-        <v>5376.31</v>
+        <v>2691.1959999999999</v>
       </c>
       <c r="Q22">
-        <v>8.6210000000000004</v>
+        <v>6.3330000000000002</v>
       </c>
       <c r="R22">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="S22">
-        <v>546</v>
+        <v>503</v>
       </c>
       <c r="T22">
-        <v>5268.66</v>
+        <v>2510.058</v>
       </c>
       <c r="U22">
-        <v>189.53399999999999</v>
+        <v>76.272999999999996</v>
       </c>
       <c r="V22">
-        <v>31.059000000000001</v>
+        <v>90.465000000000003</v>
       </c>
       <c r="W22">
-        <v>-115.08799999999999</v>
+        <v>0</v>
       </c>
       <c r="X22">
-        <v>-509.286</v>
+        <v>239.226</v>
       </c>
       <c r="Y22">
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>404.03100000000001</v>
+        <v>-108.044</v>
       </c>
       <c r="AA22">
-        <v>379.20100000000002</v>
+        <v>107.667</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>140.71299999999999</v>
+        <v>96.194999999999993</v>
       </c>
       <c r="D23">
-        <v>297.202</v>
+        <v>148.745</v>
       </c>
       <c r="E23">
-        <v>174.005</v>
+        <v>63.110999999999997</v>
       </c>
       <c r="F23">
-        <v>225.35900000000001</v>
+        <v>111.749</v>
       </c>
       <c r="G23">
-        <v>396.005</v>
+        <v>221.989</v>
       </c>
       <c r="H23">
-        <v>11249.361000000001</v>
+        <v>6375.808</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>5162.4620000000004</v>
+        <v>2581.6750000000002</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>-234.41900000000001</v>
       </c>
       <c r="M23">
-        <v>-407.17599999999999</v>
+        <v>-5.444</v>
       </c>
       <c r="N23">
-        <v>118.66</v>
+        <v>375.577</v>
       </c>
       <c r="O23">
-        <v>5845.299</v>
+        <v>3272.6439999999998</v>
       </c>
       <c r="P23">
-        <v>5164.491</v>
+        <v>2874.9940000000001</v>
       </c>
       <c r="Q23">
-        <v>32.466000000000001</v>
+        <v>82.605000000000004</v>
       </c>
       <c r="R23">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="S23">
         <v>0</v>
       </c>
       <c r="T23">
-        <v>5404.0619999999999</v>
+        <v>3103.1640000000002</v>
       </c>
       <c r="U23">
-        <v>222</v>
+        <v>158.87799999999999</v>
       </c>
       <c r="V23">
-        <v>136.95599999999999</v>
+        <v>133.12700000000001</v>
       </c>
       <c r="W23">
-        <v>-117.03</v>
+        <v>-78.168999999999997</v>
       </c>
       <c r="X23">
-        <v>-232.292</v>
+        <v>473.94600000000003</v>
       </c>
       <c r="Y23">
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>106.30500000000001</v>
+        <v>-168.00299999999999</v>
       </c>
       <c r="AA23">
-        <v>140.71299999999999</v>
+        <v>96.194999999999993</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>203.40899999999999</v>
+        <v>108.744</v>
       </c>
       <c r="D24">
-        <v>291.488</v>
+        <v>167.042</v>
       </c>
       <c r="E24">
-        <v>172.702</v>
+        <v>65.548000000000002</v>
       </c>
       <c r="F24">
-        <v>219.74600000000001</v>
+        <v>127.876</v>
       </c>
       <c r="G24">
-        <v>519.51700000000005</v>
+        <v>187.89400000000001</v>
       </c>
       <c r="H24">
-        <v>11392.432000000001</v>
+        <v>6761.85</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>5188.817</v>
+        <v>2854.8220000000001</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -2598,78 +2718,78 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>119.042</v>
+        <v>366.35500000000002</v>
       </c>
       <c r="O24">
-        <v>5860.973</v>
+        <v>3559.7710000000002</v>
       </c>
       <c r="P24">
-        <v>5191.0020000000004</v>
+        <v>3138.8539999999998</v>
       </c>
       <c r="Q24">
-        <v>115.815</v>
+        <v>-36.531999999999996</v>
       </c>
       <c r="R24">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="S24">
         <v>0</v>
       </c>
       <c r="T24">
-        <v>5531.4589999999998</v>
+        <v>3202.0790000000002</v>
       </c>
       <c r="U24">
-        <v>337.815</v>
+        <v>122.346</v>
       </c>
       <c r="V24">
-        <v>78.891000000000005</v>
+        <v>107.008</v>
       </c>
       <c r="W24">
-        <v>-118.428</v>
+        <v>-82.257999999999996</v>
       </c>
       <c r="X24">
-        <v>-146.62299999999999</v>
+        <v>65.385000000000005</v>
       </c>
       <c r="Y24">
         <v>0</v>
       </c>
       <c r="Z24">
-        <v>220.53399999999999</v>
+        <v>-148.45699999999999</v>
       </c>
       <c r="AA24">
-        <v>203.40899999999999</v>
+        <v>108.744</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>-43.545000000000002</v>
+        <v>91.421000000000006</v>
       </c>
       <c r="D25">
-        <v>285.07600000000002</v>
+        <v>161.79</v>
       </c>
       <c r="E25">
-        <v>171.47399999999999</v>
+        <v>75.763000000000005</v>
       </c>
       <c r="F25">
-        <v>212.05500000000001</v>
+        <v>121.51</v>
       </c>
       <c r="G25">
-        <v>355.41899999999998</v>
+        <v>178.55799999999999</v>
       </c>
       <c r="H25">
-        <v>11206.102000000001</v>
+        <v>7123.8059999999996</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>5000.0410000000002</v>
+        <v>3220.7420000000002</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -2681,78 +2801,78 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>119.994</v>
+        <v>221.684</v>
       </c>
       <c r="O25">
-        <v>5687.2839999999997</v>
+        <v>3838.982</v>
       </c>
       <c r="P25">
-        <v>5001.8990000000003</v>
+        <v>3352.623</v>
       </c>
       <c r="Q25">
-        <v>-167.27</v>
+        <v>-19.550999999999998</v>
       </c>
       <c r="R25">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="S25">
         <v>0</v>
       </c>
       <c r="T25">
-        <v>5518.8180000000002</v>
+        <v>3284.8240000000001</v>
       </c>
       <c r="U25">
-        <v>170.54499999999999</v>
+        <v>102.795</v>
       </c>
       <c r="V25">
-        <v>228.679</v>
+        <v>120.738</v>
       </c>
       <c r="W25">
-        <v>-118.654</v>
+        <v>-82.322999999999993</v>
       </c>
       <c r="X25">
-        <v>-332.84300000000002</v>
+        <v>81.161000000000001</v>
       </c>
       <c r="Y25">
         <v>0</v>
       </c>
       <c r="Z25">
-        <v>30.719000000000001</v>
+        <v>-107.94499999999999</v>
       </c>
       <c r="AA25">
-        <v>-43.545000000000002</v>
+        <v>91.427000000000007</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>78.272999999999996</v>
+        <v>131.899</v>
       </c>
       <c r="D26">
-        <v>297.02600000000001</v>
+        <v>169.86699999999999</v>
       </c>
       <c r="E26">
-        <v>181.82300000000001</v>
+        <v>83.418000000000006</v>
       </c>
       <c r="F26">
-        <v>215.114</v>
+        <v>127.292</v>
       </c>
       <c r="G26">
-        <v>324.30900000000003</v>
+        <v>428.58300000000003</v>
       </c>
       <c r="H26">
-        <v>11230.6</v>
+        <v>7869.28</v>
       </c>
       <c r="I26">
-        <v>145.751</v>
+        <v>163.66800000000001</v>
       </c>
       <c r="J26">
-        <v>5066.3680000000004</v>
+        <v>3422.9430000000002</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -2764,78 +2884,78 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>270.26799999999997</v>
+        <v>421.19</v>
       </c>
       <c r="O26">
-        <v>5740.7730000000001</v>
+        <v>4077.0790000000002</v>
       </c>
       <c r="P26">
-        <v>5066.3680000000004</v>
+        <v>3587.2429999999999</v>
       </c>
       <c r="Q26">
-        <v>-28.059000000000001</v>
+        <v>242.27</v>
       </c>
       <c r="R26">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="S26">
-        <v>551</v>
+        <v>632</v>
       </c>
       <c r="T26">
-        <v>5489.8270000000002</v>
+        <v>3792.201</v>
       </c>
       <c r="U26">
-        <v>142.48599999999999</v>
+        <v>345.065</v>
       </c>
       <c r="V26">
-        <v>147.57</v>
+        <v>94.695999999999998</v>
       </c>
       <c r="W26">
-        <v>-119.93300000000001</v>
+        <v>0</v>
       </c>
       <c r="X26">
-        <v>-92.769000000000005</v>
+        <v>-561.048</v>
       </c>
       <c r="Y26">
         <v>0</v>
       </c>
       <c r="Z26">
-        <v>-31.221</v>
+        <v>-229.26499999999999</v>
       </c>
       <c r="AA26">
-        <v>78.272999999999996</v>
+        <v>131.899</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>76.733000000000004</v>
+        <v>153.76400000000001</v>
       </c>
       <c r="D27">
-        <v>293.58800000000002</v>
+        <v>178.023</v>
       </c>
       <c r="E27">
-        <v>176.054</v>
+        <v>84.671999999999997</v>
       </c>
       <c r="F27">
-        <v>209.96199999999999</v>
+        <v>135.68700000000001</v>
       </c>
       <c r="G27">
-        <v>346.108</v>
+        <v>204.71600000000001</v>
       </c>
       <c r="H27">
-        <v>11248.419</v>
+        <v>7985.2309999999998</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="J27">
-        <v>5124.8829999999998</v>
+        <v>3242.665</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -2844,81 +2964,81 @@
         <v>0</v>
       </c>
       <c r="M27">
-        <v>-328.68599999999998</v>
+        <v>-18.581</v>
       </c>
       <c r="N27">
-        <v>124.68</v>
+        <v>480.45800000000003</v>
       </c>
       <c r="O27">
-        <v>5791.8419999999996</v>
+        <v>4112.4409999999998</v>
       </c>
       <c r="P27">
-        <v>5124.8829999999998</v>
+        <v>3629.5160000000001</v>
       </c>
       <c r="Q27">
-        <v>24.968</v>
+        <v>-225.02099999999999</v>
       </c>
       <c r="R27">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="S27">
         <v>0</v>
       </c>
       <c r="T27">
-        <v>5456.5770000000002</v>
+        <v>3872.79</v>
       </c>
       <c r="U27">
-        <v>167.45400000000001</v>
+        <v>120.044</v>
       </c>
       <c r="V27">
-        <v>157.05199999999999</v>
+        <v>196.476</v>
       </c>
       <c r="W27">
-        <v>-126.315</v>
+        <v>-93.221999999999994</v>
       </c>
       <c r="X27">
-        <v>-66.709000000000003</v>
+        <v>-97.046999999999997</v>
       </c>
       <c r="Y27">
         <v>0</v>
       </c>
       <c r="Z27">
-        <v>0.77100000000000002</v>
+        <v>-3.9489999999999998</v>
       </c>
       <c r="AA27">
-        <v>76.733000000000004</v>
+        <v>153.76400000000001</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>143.416</v>
+        <v>128.023</v>
       </c>
       <c r="D28">
-        <v>297.17599999999999</v>
+        <v>185.67500000000001</v>
       </c>
       <c r="E28">
-        <v>176.90700000000001</v>
+        <v>90.364000000000004</v>
       </c>
       <c r="F28">
-        <v>212.96100000000001</v>
+        <v>140.99700000000001</v>
       </c>
       <c r="G28">
-        <v>320.00599999999997</v>
+        <v>199.89500000000001</v>
       </c>
       <c r="H28">
-        <v>11558.32</v>
+        <v>8625.25</v>
       </c>
       <c r="I28">
         <v>0</v>
       </c>
       <c r="J28">
-        <v>5390.18</v>
+        <v>3950.7159999999999</v>
       </c>
       <c r="K28">
         <v>0</v>
@@ -2930,78 +3050,78 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>124.679</v>
+        <v>334.19600000000003</v>
       </c>
       <c r="O28">
-        <v>6036.6559999999999</v>
+        <v>4704.0529999999999</v>
       </c>
       <c r="P28">
-        <v>5390.18</v>
+        <v>4191.2150000000001</v>
       </c>
       <c r="Q28">
-        <v>-24.355</v>
+        <v>-10.513</v>
       </c>
       <c r="R28">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="S28">
         <v>0</v>
       </c>
       <c r="T28">
-        <v>5521.6639999999998</v>
+        <v>3921.1970000000001</v>
       </c>
       <c r="U28">
-        <v>143.09899999999999</v>
+        <v>109.53100000000001</v>
       </c>
       <c r="V28">
-        <v>142.982</v>
+        <v>196.328</v>
       </c>
       <c r="W28">
-        <v>-126.47799999999999</v>
+        <v>-93.606999999999999</v>
       </c>
       <c r="X28">
-        <v>-85.269000000000005</v>
+        <v>493.15699999999998</v>
       </c>
       <c r="Y28">
         <v>0</v>
       </c>
       <c r="Z28">
-        <v>23.524000000000001</v>
+        <v>-175.14400000000001</v>
       </c>
       <c r="AA28">
-        <v>143.416</v>
+        <v>128.02199999999999</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>121.03</v>
+        <v>78.004000000000005</v>
       </c>
       <c r="D29">
-        <v>294.84500000000003</v>
+        <v>189.02099999999999</v>
       </c>
       <c r="E29">
-        <v>182.012</v>
+        <v>84.274000000000001</v>
       </c>
       <c r="F29">
-        <v>213.45599999999999</v>
+        <v>143.71299999999999</v>
       </c>
       <c r="G29">
-        <v>353.5</v>
+        <v>129.71299999999999</v>
       </c>
       <c r="H29">
-        <v>11702.241</v>
+        <v>8898.3780000000006</v>
       </c>
       <c r="I29">
         <v>0</v>
       </c>
       <c r="J29">
-        <v>5551.2709999999997</v>
+        <v>4044.4989999999998</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -3013,78 +3133,78 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>123.27</v>
+        <v>475.95100000000002</v>
       </c>
       <c r="O29">
-        <v>6277.9579999999996</v>
+        <v>4976.0609999999997</v>
       </c>
       <c r="P29">
-        <v>5551.2709999999997</v>
+        <v>4416.4740000000002</v>
       </c>
       <c r="Q29">
-        <v>13.489000000000001</v>
+        <v>-64.091999999999999</v>
       </c>
       <c r="R29">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="S29">
         <v>0</v>
       </c>
       <c r="T29">
-        <v>5424.2830000000004</v>
+        <v>3922.317</v>
       </c>
       <c r="U29">
-        <v>156.58799999999999</v>
+        <v>45.439</v>
       </c>
       <c r="V29">
-        <v>193.78200000000001</v>
+        <v>167.523</v>
       </c>
       <c r="W29">
-        <v>-128.38900000000001</v>
+        <v>-93.697000000000003</v>
       </c>
       <c r="X29">
-        <v>-49.463999999999999</v>
+        <v>105.38</v>
       </c>
       <c r="Y29">
         <v>0</v>
       </c>
       <c r="Z29">
-        <v>-1.0860000000000001</v>
+        <v>-99.734999999999999</v>
       </c>
       <c r="AA29">
-        <v>121.03</v>
+        <v>78.004999999999995</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>84.896000000000001</v>
+        <v>83.039000000000001</v>
       </c>
       <c r="D30">
-        <v>315.22500000000002</v>
+        <v>190.85599999999999</v>
       </c>
       <c r="E30">
-        <v>189.75700000000001</v>
+        <v>88.016999999999996</v>
       </c>
       <c r="F30">
-        <v>226.56200000000001</v>
+        <v>139.441</v>
       </c>
       <c r="G30">
-        <v>450.67</v>
+        <v>175.51599999999999</v>
       </c>
       <c r="H30">
-        <v>11763.726000000001</v>
+        <v>9097.8160000000007</v>
       </c>
       <c r="I30">
-        <v>185.702</v>
+        <v>161.52600000000001</v>
       </c>
       <c r="J30">
-        <v>5478.9269999999997</v>
+        <v>4216.415</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -3096,78 +3216,78 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>314.59399999999999</v>
+        <v>273.57799999999997</v>
       </c>
       <c r="O30">
-        <v>6225.4359999999997</v>
+        <v>4755.0829999999996</v>
       </c>
       <c r="P30">
-        <v>5478.9269999999997</v>
+        <v>4216.415</v>
       </c>
       <c r="Q30">
-        <v>81.924999999999997</v>
+        <v>42.06</v>
       </c>
       <c r="R30">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="S30">
-        <v>546</v>
+        <v>726</v>
       </c>
       <c r="T30">
-        <v>5538.29</v>
+        <v>4342.7330000000002</v>
       </c>
       <c r="U30">
-        <v>238.51300000000001</v>
+        <v>87.498999999999995</v>
       </c>
       <c r="V30">
-        <v>120.36499999999999</v>
+        <v>105.66200000000001</v>
       </c>
       <c r="W30">
-        <v>-124.99</v>
+        <v>0</v>
       </c>
       <c r="X30">
-        <v>-22.431999999999999</v>
+        <v>82.566000000000003</v>
       </c>
       <c r="Y30">
         <v>0</v>
       </c>
       <c r="Z30">
-        <v>30.706</v>
+        <v>-24.734000000000002</v>
       </c>
       <c r="AA30">
-        <v>84.896000000000001</v>
+        <v>83.039000000000001</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>144.09</v>
+        <v>98.466999999999999</v>
       </c>
       <c r="D31">
-        <v>304.07799999999997</v>
+        <v>204.345</v>
       </c>
       <c r="E31">
-        <v>184.53299999999999</v>
+        <v>99.325999999999993</v>
       </c>
       <c r="F31">
-        <v>217.495</v>
+        <v>150.411</v>
       </c>
       <c r="G31">
-        <v>408.346</v>
+        <v>250.28700000000001</v>
       </c>
       <c r="H31">
-        <v>11372.502</v>
+        <v>9431.5930000000008</v>
       </c>
       <c r="I31">
         <v>0</v>
       </c>
       <c r="J31">
-        <v>5097.3220000000001</v>
+        <v>4068.761</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -3176,81 +3296,81 @@
         <v>0</v>
       </c>
       <c r="M31">
-        <v>-165.03200000000001</v>
+        <v>-35.892000000000003</v>
       </c>
       <c r="N31">
-        <v>132.209</v>
+        <v>583.49</v>
       </c>
       <c r="O31">
-        <v>5853.9539999999997</v>
+        <v>5087.3440000000001</v>
       </c>
       <c r="P31">
-        <v>5097.3220000000001</v>
+        <v>4539.07</v>
       </c>
       <c r="Q31">
-        <v>-20.2</v>
+        <v>63.462000000000003</v>
       </c>
       <c r="R31">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="S31">
         <v>0</v>
       </c>
       <c r="T31">
-        <v>5518.5479999999998</v>
+        <v>4344.2489999999998</v>
       </c>
       <c r="U31">
-        <v>218.31299999999999</v>
+        <v>150.96100000000001</v>
       </c>
       <c r="V31">
-        <v>192.279</v>
+        <v>153.69999999999999</v>
       </c>
       <c r="W31">
-        <v>-130.24100000000001</v>
+        <v>-113.438</v>
       </c>
       <c r="X31">
-        <v>-291.90499999999997</v>
+        <v>222.517</v>
       </c>
       <c r="Y31">
         <v>0</v>
       </c>
       <c r="Z31">
-        <v>-2.2949999999999999</v>
+        <v>-235.16900000000001</v>
       </c>
       <c r="AA31">
-        <v>144.09</v>
+        <v>98.466999999999999</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>165.386</v>
+        <v>94.373999999999995</v>
       </c>
       <c r="D32">
-        <v>293.40300000000002</v>
+        <v>198.74199999999999</v>
       </c>
       <c r="E32">
-        <v>180.45099999999999</v>
+        <v>104.158</v>
       </c>
       <c r="F32">
-        <v>212.06200000000001</v>
+        <v>148.58699999999999</v>
       </c>
       <c r="G32">
-        <v>501.72800000000001</v>
+        <v>227.34100000000001</v>
       </c>
       <c r="H32">
-        <v>11291.782999999999</v>
+        <v>9594.2459999999992</v>
       </c>
       <c r="I32">
         <v>0</v>
       </c>
       <c r="J32">
-        <v>5068.7160000000003</v>
+        <v>4377.6610000000001</v>
       </c>
       <c r="K32">
         <v>0</v>
@@ -3262,78 +3382,78 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>130.262</v>
+        <v>475.53500000000003</v>
       </c>
       <c r="O32">
-        <v>5786.6540000000005</v>
+        <v>5248.7030000000004</v>
       </c>
       <c r="P32">
-        <v>5068.7160000000003</v>
+        <v>4739.7730000000001</v>
       </c>
       <c r="Q32">
-        <v>87.263999999999996</v>
+        <v>-27.777999999999999</v>
       </c>
       <c r="R32">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="S32">
         <v>0</v>
       </c>
       <c r="T32">
-        <v>5505.1289999999999</v>
+        <v>4345.5429999999997</v>
       </c>
       <c r="U32">
-        <v>305.577</v>
+        <v>123.18300000000001</v>
       </c>
       <c r="V32">
-        <v>159.70699999999999</v>
+        <v>117.601</v>
       </c>
       <c r="W32">
-        <v>-134.47</v>
+        <v>-113.199</v>
       </c>
       <c r="X32">
-        <v>-221.16800000000001</v>
+        <v>49.618000000000002</v>
       </c>
       <c r="Y32">
         <v>0</v>
       </c>
       <c r="Z32">
-        <v>2.44</v>
+        <v>-43.863</v>
       </c>
       <c r="AA32">
-        <v>165.386</v>
+        <v>94.373999999999995</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>100.158</v>
+        <v>108.584</v>
       </c>
       <c r="D33">
-        <v>283.08</v>
+        <v>208.047</v>
       </c>
       <c r="E33">
-        <v>183.44</v>
+        <v>109.71</v>
       </c>
       <c r="F33">
-        <v>203.251</v>
+        <v>153.93799999999999</v>
       </c>
       <c r="G33">
-        <v>361.02600000000001</v>
+        <v>233.80099999999999</v>
       </c>
       <c r="H33">
-        <v>11109.521000000001</v>
+        <v>9756.6620000000003</v>
       </c>
       <c r="I33">
         <v>0</v>
       </c>
       <c r="J33">
-        <v>4887.4740000000002</v>
+        <v>4229.7030000000004</v>
       </c>
       <c r="K33">
         <v>0</v>
@@ -3345,78 +3465,78 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>130.26300000000001</v>
+        <v>295.33499999999998</v>
       </c>
       <c r="O33">
-        <v>5633.35</v>
+        <v>4968.6660000000002</v>
       </c>
       <c r="P33">
-        <v>4887.4740000000002</v>
+        <v>4396.0739999999996</v>
       </c>
       <c r="Q33">
-        <v>-159.191</v>
+        <v>0.90800000000000003</v>
       </c>
       <c r="R33">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="S33">
         <v>0</v>
       </c>
       <c r="T33">
-        <v>5476.1710000000003</v>
+        <v>4787.9960000000001</v>
       </c>
       <c r="U33">
-        <v>146.386</v>
+        <v>124.09099999999999</v>
       </c>
       <c r="V33">
-        <v>164.345</v>
+        <v>208.00200000000001</v>
       </c>
       <c r="W33">
-        <v>-132.52099999999999</v>
+        <v>-113.423</v>
       </c>
       <c r="X33">
-        <v>-326.14</v>
+        <v>-72.522000000000006</v>
       </c>
       <c r="Y33">
         <v>0</v>
       </c>
       <c r="Z33">
-        <v>-8.1999999999999993</v>
+        <v>-38.460999999999999</v>
       </c>
       <c r="AA33">
-        <v>100.158</v>
+        <v>108.584</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>88.161000000000001</v>
+        <v>0</v>
       </c>
       <c r="D34">
-        <v>284.20100000000002</v>
+        <v>0</v>
       </c>
       <c r="E34">
-        <v>184.52799999999999</v>
+        <v>93.731999999999999</v>
       </c>
       <c r="F34">
-        <v>203.39500000000001</v>
+        <v>0</v>
       </c>
       <c r="G34">
-        <v>345.30900000000003</v>
+        <v>229.90899999999999</v>
       </c>
       <c r="H34">
-        <v>10999.1</v>
+        <v>9397.1470000000008</v>
       </c>
       <c r="I34">
-        <v>174.90299999999999</v>
+        <v>151.24100000000001</v>
       </c>
       <c r="J34">
-        <v>4873.8720000000003</v>
+        <v>4556.6459999999997</v>
       </c>
       <c r="K34">
         <v>0</v>
@@ -3428,78 +3548,78 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>305.16500000000002</v>
+        <v>282.33800000000002</v>
       </c>
       <c r="O34">
-        <v>5564.3649999999998</v>
+        <v>5076.5609999999997</v>
       </c>
       <c r="P34">
-        <v>4873.8720000000003</v>
+        <v>4556.6459999999997</v>
       </c>
       <c r="Q34">
-        <v>-2.8050000000000002</v>
+        <v>0</v>
       </c>
       <c r="R34">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="S34">
-        <v>533</v>
+        <v>734</v>
       </c>
       <c r="T34">
-        <v>5434.7349999999997</v>
+        <v>4320.5860000000002</v>
       </c>
       <c r="U34">
-        <v>143.58099999999999</v>
+        <v>136.17699999999999</v>
       </c>
       <c r="V34">
-        <v>121.605</v>
+        <v>0</v>
       </c>
       <c r="W34">
-        <v>-132.524</v>
+        <v>0</v>
       </c>
       <c r="X34">
-        <v>-147.30000000000001</v>
+        <v>0</v>
       </c>
       <c r="Y34">
         <v>0</v>
       </c>
       <c r="Z34">
-        <v>5.4340000000000002</v>
+        <v>0</v>
       </c>
       <c r="AA34">
-        <v>88.161000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>116.169</v>
+        <v>38.423999999999999</v>
       </c>
       <c r="D35">
-        <v>295.01</v>
+        <v>206.446</v>
       </c>
       <c r="E35">
-        <v>183.65</v>
+        <v>109.14100000000001</v>
       </c>
       <c r="F35">
-        <v>212.07499999999999</v>
+        <v>148.25700000000001</v>
       </c>
       <c r="G35">
-        <v>331.923</v>
+        <v>259.12299999999999</v>
       </c>
       <c r="H35">
-        <v>11070.2</v>
+        <v>9392.9689999999991</v>
       </c>
       <c r="I35">
         <v>0</v>
       </c>
       <c r="J35">
-        <v>4868.7539999999999</v>
+        <v>4491.1559999999999</v>
       </c>
       <c r="K35">
         <v>0</v>
@@ -3508,81 +3628,81 @@
         <v>0</v>
       </c>
       <c r="M35">
-        <v>-6.3609999999999998</v>
+        <v>-144.19</v>
       </c>
       <c r="N35">
-        <v>130.44399999999999</v>
+        <v>291.79700000000003</v>
       </c>
       <c r="O35">
-        <v>5649.6580000000004</v>
+        <v>5191.21</v>
       </c>
       <c r="P35">
-        <v>4965.8869999999997</v>
+        <v>4651.8559999999998</v>
       </c>
       <c r="Q35">
-        <v>9.1999999999999998E-2</v>
+        <v>13.805</v>
       </c>
       <c r="R35">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="S35">
         <v>0</v>
       </c>
       <c r="T35">
-        <v>5420.5420000000004</v>
+        <v>4201.759</v>
       </c>
       <c r="U35">
-        <v>143.673</v>
+        <v>149.982</v>
       </c>
       <c r="V35">
-        <v>155.25800000000001</v>
+        <v>114.905</v>
       </c>
       <c r="W35">
-        <v>-132.52099999999999</v>
+        <v>-131.09700000000001</v>
       </c>
       <c r="X35">
-        <v>-139.624</v>
+        <v>-21.276</v>
       </c>
       <c r="Y35">
-        <v>97.132999999999996</v>
+        <v>0</v>
       </c>
       <c r="Z35">
-        <v>-11.092000000000001</v>
+        <v>-37.936</v>
       </c>
       <c r="AA35">
-        <v>116.169</v>
+        <v>38.423999999999999</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>101.027</v>
+        <v>-134.65100000000001</v>
       </c>
       <c r="D36">
-        <v>284.87299999999999</v>
+        <v>202.14099999999999</v>
       </c>
       <c r="E36">
-        <v>182.369</v>
+        <v>102.75</v>
       </c>
       <c r="F36">
-        <v>201.727</v>
+        <v>147.70400000000001</v>
       </c>
       <c r="G36">
-        <v>339.06</v>
+        <v>291.67500000000001</v>
       </c>
       <c r="H36">
-        <v>11040.903</v>
+        <v>9338.3469999999998</v>
       </c>
       <c r="I36">
         <v>0</v>
       </c>
       <c r="J36">
-        <v>4905.5020000000004</v>
+        <v>4026.9679999999998</v>
       </c>
       <c r="K36">
         <v>0</v>
@@ -3594,78 +3714,78 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>130.46</v>
+        <v>146.10300000000001</v>
       </c>
       <c r="O36">
-        <v>5649.7520000000004</v>
+        <v>4557.9340000000002</v>
       </c>
       <c r="P36">
-        <v>4998.7349999999997</v>
+        <v>4138.6679999999997</v>
       </c>
       <c r="Q36">
-        <v>-29.681999999999999</v>
+        <v>38.942999999999998</v>
       </c>
       <c r="R36">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="S36">
         <v>0</v>
       </c>
       <c r="T36">
-        <v>5391.1509999999998</v>
+        <v>4780.4129999999996</v>
       </c>
       <c r="U36">
-        <v>113.991</v>
+        <v>188.92500000000001</v>
       </c>
       <c r="V36">
-        <v>158.27099999999999</v>
+        <v>83.046999999999997</v>
       </c>
       <c r="W36">
-        <v>-132.70500000000001</v>
+        <v>-131.09899999999999</v>
       </c>
       <c r="X36">
-        <v>-102.976</v>
+        <v>-0.71599999999999997</v>
       </c>
       <c r="Y36">
-        <v>93.233000000000004</v>
+        <v>0</v>
       </c>
       <c r="Z36">
-        <v>-6.1509999999999998</v>
+        <v>6.07</v>
       </c>
       <c r="AA36">
-        <v>101.027</v>
+        <v>-134.65100000000001</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>83.99</v>
+        <v>40.107999999999997</v>
       </c>
       <c r="D37">
-        <v>282.87099999999998</v>
+        <v>204.005</v>
       </c>
       <c r="E37">
-        <v>191.43600000000001</v>
+        <v>106.84</v>
       </c>
       <c r="F37">
-        <v>202.75800000000001</v>
+        <v>146.39699999999999</v>
       </c>
       <c r="G37">
-        <v>369.64600000000002</v>
+        <v>247.59700000000001</v>
       </c>
       <c r="H37">
-        <v>11085.130999999999</v>
+        <v>9288.0409999999993</v>
       </c>
       <c r="I37">
         <v>0</v>
       </c>
       <c r="J37">
-        <v>5312.6279999999997</v>
+        <v>3967.6460000000002</v>
       </c>
       <c r="K37">
         <v>0</v>
@@ -3677,78 +3797,78 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>126.203</v>
+        <v>38.924999999999997</v>
       </c>
       <c r="O37">
-        <v>6086.9669999999996</v>
+        <v>4422.643</v>
       </c>
       <c r="P37">
-        <v>5404.2489999999998</v>
+        <v>3972.1460000000002</v>
       </c>
       <c r="Q37">
-        <v>27.318999999999999</v>
+        <v>-48.167999999999999</v>
       </c>
       <c r="R37">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="S37">
         <v>0</v>
       </c>
       <c r="T37">
-        <v>4998.1639999999998</v>
+        <v>4865.3980000000001</v>
       </c>
       <c r="U37">
-        <v>141.31</v>
+        <v>140.75700000000001</v>
       </c>
       <c r="V37">
-        <v>168.93</v>
+        <v>123.996</v>
       </c>
       <c r="W37">
-        <v>-136.054</v>
+        <v>-34.402999999999999</v>
       </c>
       <c r="X37">
-        <v>-80.822999999999993</v>
+        <v>-240.41399999999999</v>
       </c>
       <c r="Y37">
-        <v>91.620999999999995</v>
+        <v>0</v>
       </c>
       <c r="Z37">
-        <v>-1.9790000000000001</v>
+        <v>84.233999999999995</v>
       </c>
       <c r="AA37">
-        <v>83.99</v>
+        <v>40.107999999999997</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>109.419</v>
+        <v>0</v>
       </c>
       <c r="D38">
-        <v>296.13</v>
+        <v>0</v>
       </c>
       <c r="E38">
-        <v>218.68899999999999</v>
+        <v>113.61</v>
       </c>
       <c r="F38">
-        <v>205.37299999999999</v>
+        <v>0</v>
       </c>
       <c r="G38">
-        <v>342.63600000000002</v>
+        <v>235.66800000000001</v>
       </c>
       <c r="H38">
-        <v>10997.867</v>
+        <v>10183.079</v>
       </c>
       <c r="I38">
-        <v>170.08199999999999</v>
+        <v>142.66999999999999</v>
       </c>
       <c r="J38">
-        <v>5315.7669999999998</v>
+        <v>4434.3829999999998</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -3760,78 +3880,78 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>296.35599999999999</v>
+        <v>219.37700000000001</v>
       </c>
       <c r="O38">
-        <v>6051.0169999999998</v>
+        <v>4964.7969999999996</v>
       </c>
       <c r="P38">
-        <v>5408.4780000000001</v>
+        <v>4434.3829999999998</v>
       </c>
       <c r="Q38">
-        <v>-17.363</v>
+        <v>0</v>
       </c>
       <c r="R38">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="S38">
-        <v>502</v>
+        <v>665</v>
       </c>
       <c r="T38">
-        <v>4946.8500000000004</v>
+        <v>5218.2820000000002</v>
       </c>
       <c r="U38">
-        <v>123.947</v>
+        <v>122.05800000000001</v>
       </c>
       <c r="V38">
-        <v>101.169</v>
+        <v>0</v>
       </c>
       <c r="W38">
-        <v>-130.285</v>
+        <v>0</v>
       </c>
       <c r="X38">
-        <v>-159.41800000000001</v>
+        <v>0</v>
       </c>
       <c r="Y38">
-        <v>92.710999999999999</v>
+        <v>0</v>
       </c>
       <c r="Z38">
-        <v>5.7389999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA38">
-        <v>109.419</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>90.1</v>
+        <v>50.835999999999999</v>
       </c>
       <c r="D39">
-        <v>289.74400000000003</v>
+        <v>223.80500000000001</v>
       </c>
       <c r="E39">
-        <v>220.215</v>
+        <v>114.39700000000001</v>
       </c>
       <c r="F39">
-        <v>204.84899999999999</v>
+        <v>160.17099999999999</v>
       </c>
       <c r="G39">
-        <v>673.31100000000004</v>
+        <v>251.834</v>
       </c>
       <c r="H39">
-        <v>11305.134</v>
+        <v>10262.463</v>
       </c>
       <c r="I39">
         <v>0</v>
       </c>
       <c r="J39">
-        <v>5708.5349999999999</v>
+        <v>4388.2659999999996</v>
       </c>
       <c r="K39">
         <v>0</v>
@@ -3840,81 +3960,81 @@
         <v>0</v>
       </c>
       <c r="M39">
-        <v>-78.423000000000002</v>
+        <v>-49.173000000000002</v>
       </c>
       <c r="N39">
-        <v>126.473</v>
+        <v>212.93100000000001</v>
       </c>
       <c r="O39">
-        <v>6414.7219999999998</v>
+        <v>5053.4160000000002</v>
       </c>
       <c r="P39">
-        <v>5800.0810000000001</v>
+        <v>4524.4660000000003</v>
       </c>
       <c r="Q39">
-        <v>327.84899999999999</v>
+        <v>15.379</v>
       </c>
       <c r="R39">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="S39">
         <v>0</v>
       </c>
       <c r="T39">
-        <v>4890.4120000000003</v>
+        <v>5209.0469999999996</v>
       </c>
       <c r="U39">
-        <v>451.79599999999999</v>
+        <v>137.43700000000001</v>
       </c>
       <c r="V39">
-        <v>155.249</v>
+        <v>143.18600000000001</v>
       </c>
       <c r="W39">
-        <v>-127.255</v>
+        <v>-76.706000000000003</v>
       </c>
       <c r="X39">
-        <v>239.15299999999999</v>
+        <v>-96.314999999999998</v>
       </c>
       <c r="Y39">
-        <v>91.546000000000006</v>
+        <v>0</v>
       </c>
       <c r="Z39">
-        <v>-3.6829999999999998</v>
+        <v>-7.5679999999999996</v>
       </c>
       <c r="AA39">
-        <v>90.1</v>
+        <v>50.835999999999999</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>747.89300000000003</v>
+        <v>24.611000000000001</v>
       </c>
       <c r="D40">
-        <v>238.916</v>
+        <v>220.44200000000001</v>
       </c>
       <c r="E40">
-        <v>250.15</v>
+        <v>116.038</v>
       </c>
       <c r="F40">
-        <v>158.471</v>
+        <v>159.59</v>
       </c>
       <c r="G40">
-        <v>451.83699999999999</v>
+        <v>265.721</v>
       </c>
       <c r="H40">
-        <v>11559.97</v>
+        <v>9883.0069999999996</v>
       </c>
       <c r="I40">
         <v>0</v>
       </c>
       <c r="J40">
-        <v>5350.3779999999997</v>
+        <v>4231.2619999999997</v>
       </c>
       <c r="K40">
         <v>0</v>
@@ -3926,78 +4046,78 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>5.3659999999999997</v>
+        <v>105.755</v>
       </c>
       <c r="O40">
-        <v>5923.6530000000002</v>
+        <v>4746.2479999999996</v>
       </c>
       <c r="P40">
-        <v>5440.7420000000002</v>
+        <v>4260.2619999999997</v>
       </c>
       <c r="Q40">
-        <v>-250.10900000000001</v>
+        <v>-2.1539999999999999</v>
       </c>
       <c r="R40">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="S40">
         <v>0</v>
       </c>
       <c r="T40">
-        <v>5636.317</v>
+        <v>5136.759</v>
       </c>
       <c r="U40">
-        <v>201.68700000000001</v>
+        <v>135.28299999999999</v>
       </c>
       <c r="V40">
-        <v>82.197999999999993</v>
+        <v>86.548000000000002</v>
       </c>
       <c r="W40">
-        <v>-127.461</v>
+        <v>-76.731999999999999</v>
       </c>
       <c r="X40">
-        <v>-495.45699999999999</v>
+        <v>-225.20500000000001</v>
       </c>
       <c r="Y40">
-        <v>90.364000000000004</v>
+        <v>0</v>
       </c>
       <c r="Z40">
-        <v>224.56299999999999</v>
+        <v>-18.266999999999999</v>
       </c>
       <c r="AA40">
-        <v>747.89300000000003</v>
+        <v>24.61</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>-38.393999999999998</v>
+        <v>0</v>
       </c>
       <c r="D41">
-        <v>259.79199999999997</v>
+        <v>218.79900000000001</v>
       </c>
       <c r="E41">
-        <v>239.864</v>
+        <v>126.542</v>
       </c>
       <c r="F41">
-        <v>173.77799999999999</v>
+        <v>158.43899999999999</v>
       </c>
       <c r="G41">
-        <v>564.84100000000001</v>
+        <v>299.55799999999999</v>
       </c>
       <c r="H41">
-        <v>11524.191999999999</v>
+        <v>9814.5079999999998</v>
       </c>
       <c r="I41">
         <v>0</v>
       </c>
       <c r="J41">
-        <v>5357.3779999999997</v>
+        <v>4031.6770000000001</v>
       </c>
       <c r="K41">
         <v>0</v>
@@ -4009,128 +4129,3448 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>5.3659999999999997</v>
+        <v>83.611999999999995</v>
       </c>
       <c r="O41">
-        <v>5968.8220000000001</v>
+        <v>4553.8609999999999</v>
       </c>
       <c r="P41">
-        <v>5446.2709999999997</v>
+        <v>4037.4769999999999</v>
       </c>
       <c r="Q41">
-        <v>123.29</v>
+        <v>0</v>
       </c>
       <c r="R41">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="S41">
         <v>0</v>
       </c>
       <c r="T41">
-        <v>5555.37</v>
+        <v>5260.6469999999999</v>
       </c>
       <c r="U41">
-        <v>324.97699999999998</v>
+        <v>158.11600000000001</v>
       </c>
       <c r="V41">
-        <v>228.495</v>
+        <v>0</v>
       </c>
       <c r="W41">
-        <v>-49.603999999999999</v>
+        <v>0</v>
       </c>
       <c r="X41">
-        <v>-51.988</v>
+        <v>0</v>
       </c>
       <c r="Y41">
-        <v>88.893000000000001</v>
+        <v>0</v>
       </c>
       <c r="Z41">
-        <v>-7.9850000000000003</v>
+        <v>0</v>
       </c>
       <c r="AA41">
-        <v>-38.393999999999998</v>
+        <v>30.332999999999998</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44196</v>
+        <v>40543</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
+        <v>37.088999999999999</v>
+      </c>
+      <c r="D42">
+        <v>217.48400000000001</v>
+      </c>
+      <c r="E42">
+        <v>130.536</v>
+      </c>
+      <c r="F42">
+        <v>144.50899999999999</v>
+      </c>
+      <c r="G42">
+        <v>270.29500000000002</v>
+      </c>
+      <c r="H42">
+        <v>9833.875</v>
+      </c>
+      <c r="I42">
+        <v>154.482</v>
+      </c>
+      <c r="J42">
+        <v>4058.9870000000001</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>243.51900000000001</v>
+      </c>
+      <c r="O42">
+        <v>4577.5290000000005</v>
+      </c>
+      <c r="P42">
+        <v>4058.9870000000001</v>
+      </c>
+      <c r="Q42">
+        <v>-32.962000000000003</v>
+      </c>
+      <c r="R42">
+        <v>40543</v>
+      </c>
+      <c r="S42">
+        <v>687</v>
+      </c>
+      <c r="T42">
+        <v>5256.3459999999995</v>
+      </c>
+      <c r="U42">
+        <v>125.154</v>
+      </c>
+      <c r="V42">
+        <v>121.73099999999999</v>
+      </c>
+      <c r="W42">
+        <v>0</v>
+      </c>
+      <c r="X42">
+        <v>-118.506</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>5.4809999999999999</v>
+      </c>
+      <c r="AA42">
+        <v>37.088999999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>40633</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>28.963000000000001</v>
+      </c>
+      <c r="D43">
+        <v>225.46199999999999</v>
+      </c>
+      <c r="E43">
+        <v>139.48699999999999</v>
+      </c>
+      <c r="F43">
+        <v>160.18299999999999</v>
+      </c>
+      <c r="G43">
+        <v>291.92500000000001</v>
+      </c>
+      <c r="H43">
+        <v>9895.1579999999994</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>4111.6930000000002</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>-6.077</v>
+      </c>
+      <c r="N43">
+        <v>126.474</v>
+      </c>
+      <c r="O43">
+        <v>4680.4340000000002</v>
+      </c>
+      <c r="P43">
+        <v>4150.0929999999998</v>
+      </c>
+      <c r="Q43">
+        <v>22.884</v>
+      </c>
+      <c r="R43">
+        <v>40633</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>5214.7240000000002</v>
+      </c>
+      <c r="U43">
+        <v>148.03800000000001</v>
+      </c>
+      <c r="V43">
+        <v>114.842</v>
+      </c>
+      <c r="W43">
+        <v>-89.501000000000005</v>
+      </c>
+      <c r="X43">
+        <v>-38.71</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>-27.03</v>
+      </c>
+      <c r="AA43">
+        <v>28.962</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>40724</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>38.707999999999998</v>
+      </c>
+      <c r="D44">
+        <v>212.54900000000001</v>
+      </c>
+      <c r="E44">
+        <v>134.98599999999999</v>
+      </c>
+      <c r="F44">
+        <v>156.999</v>
+      </c>
+      <c r="G44">
+        <v>279.053</v>
+      </c>
+      <c r="H44">
+        <v>9704.68</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>3967.4690000000001</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>100.99299999999999</v>
+      </c>
+      <c r="O44">
+        <v>4497.9759999999997</v>
+      </c>
+      <c r="P44">
+        <v>3980.3690000000001</v>
+      </c>
+      <c r="Q44">
+        <v>-3.9710000000000001</v>
+      </c>
+      <c r="R44">
+        <v>40724</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>5206.7039999999997</v>
+      </c>
+      <c r="U44">
+        <v>144.06700000000001</v>
+      </c>
+      <c r="V44">
+        <v>100.99299999999999</v>
+      </c>
+      <c r="W44">
+        <v>-88.078999999999994</v>
+      </c>
+      <c r="X44">
+        <v>-271.82299999999998</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>186.631</v>
+      </c>
+      <c r="AA44">
+        <v>38.710999999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>40816</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>54.982999999999997</v>
+      </c>
+      <c r="D45">
+        <v>214.98400000000001</v>
+      </c>
+      <c r="E45">
+        <v>135.71700000000001</v>
+      </c>
+      <c r="F45">
+        <v>156.387</v>
+      </c>
+      <c r="G45">
+        <v>322.01499999999999</v>
+      </c>
+      <c r="H45">
+        <v>9580.5509999999995</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>3979.663</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>93.69</v>
+      </c>
+      <c r="O45">
+        <v>4538.6549999999997</v>
+      </c>
+      <c r="P45">
+        <v>3985.2629999999999</v>
+      </c>
+      <c r="Q45">
+        <v>36.131</v>
+      </c>
+      <c r="R45">
+        <v>40816</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>5041.8959999999997</v>
+      </c>
+      <c r="U45">
+        <v>180.19800000000001</v>
+      </c>
+      <c r="V45">
+        <v>152.08000000000001</v>
+      </c>
+      <c r="W45">
+        <v>-88.093999999999994</v>
+      </c>
+      <c r="X45">
+        <v>-81.887</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>28.539000000000001</v>
+      </c>
+      <c r="AA45">
+        <v>54.981000000000002</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>40908</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>46.396999999999998</v>
+      </c>
+      <c r="D46">
+        <v>215.33500000000001</v>
+      </c>
+      <c r="E46">
+        <v>164.053</v>
+      </c>
+      <c r="F46">
+        <v>158.01499999999999</v>
+      </c>
+      <c r="G46">
+        <v>280.73500000000001</v>
+      </c>
+      <c r="H46">
+        <v>9628.7620000000006</v>
+      </c>
+      <c r="I46">
+        <v>125.544</v>
+      </c>
+      <c r="J46">
+        <v>4114.3850000000002</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>217.703</v>
+      </c>
+      <c r="O46">
+        <v>4653.5450000000001</v>
+      </c>
+      <c r="P46">
+        <v>4114.3850000000002</v>
+      </c>
+      <c r="Q46">
+        <v>-67.316000000000003</v>
+      </c>
+      <c r="R46">
+        <v>40908</v>
+      </c>
+      <c r="S46">
+        <v>685</v>
+      </c>
+      <c r="T46">
+        <v>4975.2169999999996</v>
+      </c>
+      <c r="U46">
+        <v>112.88200000000001</v>
+      </c>
+      <c r="V46">
+        <v>80.697999999999993</v>
+      </c>
+      <c r="W46">
+        <v>0</v>
+      </c>
+      <c r="X46">
+        <v>-47.704999999999998</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>-26.994</v>
+      </c>
+      <c r="AA46">
+        <v>46.396999999999998</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>40999</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>53.637999999999998</v>
+      </c>
+      <c r="D47">
+        <v>223.51499999999999</v>
+      </c>
+      <c r="E47">
+        <v>136.244</v>
+      </c>
+      <c r="F47">
+        <v>166.988</v>
+      </c>
+      <c r="G47">
+        <v>387.14400000000001</v>
+      </c>
+      <c r="H47">
+        <v>9826.5650000000005</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>3805.058</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>-272.93</v>
+      </c>
+      <c r="N47">
+        <v>201.48699999999999</v>
+      </c>
+      <c r="O47">
+        <v>4447.9170000000004</v>
+      </c>
+      <c r="P47">
+        <v>3913.6579999999999</v>
+      </c>
+      <c r="Q47">
+        <v>129.41800000000001</v>
+      </c>
+      <c r="R47">
+        <v>40999</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>5378.6480000000001</v>
+      </c>
+      <c r="U47">
+        <v>242.3</v>
+      </c>
+      <c r="V47">
+        <v>156.874</v>
+      </c>
+      <c r="W47">
+        <v>-92.158000000000001</v>
+      </c>
+      <c r="X47">
+        <v>5.0229999999999997</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>13.531000000000001</v>
+      </c>
+      <c r="AA47">
+        <v>53.637999999999998</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>41090</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>69.111999999999995</v>
+      </c>
+      <c r="D48">
+        <v>222.04400000000001</v>
+      </c>
+      <c r="E48">
+        <v>131.48699999999999</v>
+      </c>
+      <c r="F48">
+        <v>166.38900000000001</v>
+      </c>
+      <c r="G48">
+        <v>518.01599999999996</v>
+      </c>
+      <c r="H48">
+        <v>10030.071</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>4150.116</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>140.483</v>
+      </c>
+      <c r="O48">
+        <v>4729.9229999999998</v>
+      </c>
+      <c r="P48">
+        <v>4191.7160000000003</v>
+      </c>
+      <c r="Q48">
+        <v>141.429</v>
+      </c>
+      <c r="R48">
+        <v>41090</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>5300.1480000000001</v>
+      </c>
+      <c r="U48">
+        <v>383.72899999999998</v>
+      </c>
+      <c r="V48">
+        <v>118.55800000000001</v>
+      </c>
+      <c r="W48">
+        <v>-92.149000000000001</v>
+      </c>
+      <c r="X48">
+        <v>135.27500000000001</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>-43.46</v>
+      </c>
+      <c r="AA48">
+        <v>69.113</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>41182</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>54.942</v>
+      </c>
+      <c r="D49">
+        <v>224.95500000000001</v>
+      </c>
+      <c r="E49">
+        <v>138.55799999999999</v>
+      </c>
+      <c r="F49">
+        <v>167.529</v>
+      </c>
+      <c r="G49">
+        <v>627.18700000000001</v>
+      </c>
+      <c r="H49">
+        <v>10115.976000000001</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>4186.491</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>126.556</v>
+      </c>
+      <c r="O49">
+        <v>4777.7380000000003</v>
+      </c>
+      <c r="P49">
+        <v>4218.1909999999998</v>
+      </c>
+      <c r="Q49">
+        <v>45.8</v>
+      </c>
+      <c r="R49">
+        <v>41182</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>5338.2380000000003</v>
+      </c>
+      <c r="U49">
+        <v>429.529</v>
+      </c>
+      <c r="V49">
+        <v>132.15799999999999</v>
+      </c>
+      <c r="W49">
+        <v>-100.785</v>
+      </c>
+      <c r="X49">
+        <v>-101.191</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>37.987000000000002</v>
+      </c>
+      <c r="AA49">
+        <v>54.941000000000003</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>41274</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>88.381</v>
+      </c>
+      <c r="D50">
+        <v>211.393</v>
+      </c>
+      <c r="E50">
+        <v>171.54</v>
+      </c>
+      <c r="F50">
+        <v>150.30500000000001</v>
+      </c>
+      <c r="G50">
+        <v>316.815</v>
+      </c>
+      <c r="H50">
+        <v>9751.2340000000004</v>
+      </c>
+      <c r="I50">
+        <v>111.881</v>
+      </c>
+      <c r="J50">
+        <v>4195.317</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>208.399</v>
+      </c>
+      <c r="O50">
+        <v>4737.6779999999999</v>
+      </c>
+      <c r="P50">
+        <v>4195.317</v>
+      </c>
+      <c r="Q50">
+        <v>-287.654</v>
+      </c>
+      <c r="R50">
+        <v>41274</v>
+      </c>
+      <c r="S50">
+        <v>635</v>
+      </c>
+      <c r="T50">
+        <v>5013.5559999999996</v>
+      </c>
+      <c r="U50">
+        <v>141.875</v>
+      </c>
+      <c r="V50">
+        <v>71.463999999999999</v>
+      </c>
+      <c r="W50">
+        <v>0</v>
+      </c>
+      <c r="X50">
+        <v>-438.16800000000001</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>-1.22</v>
+      </c>
+      <c r="AA50">
+        <v>88.381</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>41364</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>67.77</v>
+      </c>
+      <c r="D51">
+        <v>223.30799999999999</v>
+      </c>
+      <c r="E51">
+        <v>164.51</v>
+      </c>
+      <c r="F51">
+        <v>167.02099999999999</v>
+      </c>
+      <c r="G51">
+        <v>331.60399999999998</v>
+      </c>
+      <c r="H51">
+        <v>10061.834999999999</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>4451.0730000000003</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>-201.12799999999999</v>
+      </c>
+      <c r="N51">
+        <v>99.156000000000006</v>
+      </c>
+      <c r="O51">
+        <v>5019.723</v>
+      </c>
+      <c r="P51">
+        <v>4451.0730000000003</v>
+      </c>
+      <c r="Q51">
+        <v>25.018999999999998</v>
+      </c>
+      <c r="R51">
+        <v>41364</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>5042.1120000000001</v>
+      </c>
+      <c r="U51">
+        <v>166.89400000000001</v>
+      </c>
+      <c r="V51">
+        <v>149.88499999999999</v>
+      </c>
+      <c r="W51">
+        <v>-97.744</v>
+      </c>
+      <c r="X51">
+        <v>36.731000000000002</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>-96.29</v>
+      </c>
+      <c r="AA51">
+        <v>67.77</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>41455</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>51.139000000000003</v>
+      </c>
+      <c r="D52">
+        <v>214.08799999999999</v>
+      </c>
+      <c r="E52">
+        <v>160.398</v>
+      </c>
+      <c r="F52">
+        <v>160.535</v>
+      </c>
+      <c r="G52">
+        <v>338.24799999999999</v>
+      </c>
+      <c r="H52">
+        <v>9988.4709999999995</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>4464.7740000000003</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>98.325999999999993</v>
+      </c>
+      <c r="O52">
+        <v>5036.7039999999997</v>
+      </c>
+      <c r="P52">
+        <v>4464.7740000000003</v>
+      </c>
+      <c r="Q52">
+        <v>-10.444000000000001</v>
+      </c>
+      <c r="R52">
+        <v>41455</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>4951.7669999999998</v>
+      </c>
+      <c r="U52">
+        <v>156.44999999999999</v>
+      </c>
+      <c r="V52">
+        <v>115.643</v>
+      </c>
+      <c r="W52">
+        <v>-101.42</v>
+      </c>
+      <c r="X52">
+        <v>-190.232</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>85.813000000000002</v>
+      </c>
+      <c r="AA52">
+        <v>51.139000000000003</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>41547</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>55.762999999999998</v>
+      </c>
+      <c r="D53">
+        <v>222.38800000000001</v>
+      </c>
+      <c r="E53">
+        <v>160.126</v>
+      </c>
+      <c r="F53">
+        <v>167.15</v>
+      </c>
+      <c r="G53">
+        <v>626.45600000000002</v>
+      </c>
+      <c r="H53">
+        <v>9953.0789999999997</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>4380.652</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>98.334000000000003</v>
+      </c>
+      <c r="O53">
+        <v>5027.0240000000003</v>
+      </c>
+      <c r="P53">
+        <v>4380.652</v>
+      </c>
+      <c r="Q53">
+        <v>245.28</v>
+      </c>
+      <c r="R53">
+        <v>41547</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>4926.0550000000003</v>
+      </c>
+      <c r="U53">
+        <v>401.73</v>
+      </c>
+      <c r="V53">
+        <v>268.31299999999999</v>
+      </c>
+      <c r="W53">
+        <v>-100.59</v>
+      </c>
+      <c r="X53">
+        <v>-190.77099999999999</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>91.820999999999998</v>
+      </c>
+      <c r="AA53">
+        <v>55.762999999999998</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>41639</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <v>61.609000000000002</v>
+      </c>
+      <c r="D54">
+        <v>206.047</v>
+      </c>
+      <c r="E54">
+        <v>164.32599999999999</v>
+      </c>
+      <c r="F54">
+        <v>149.62700000000001</v>
+      </c>
+      <c r="G54">
+        <v>383.39400000000001</v>
+      </c>
+      <c r="H54">
+        <v>9663.6299999999992</v>
+      </c>
+      <c r="I54">
+        <v>124.29</v>
+      </c>
+      <c r="J54">
+        <v>4221.4009999999998</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>228.786</v>
+      </c>
+      <c r="O54">
+        <v>4807.951</v>
+      </c>
+      <c r="P54">
+        <v>4221.4009999999998</v>
+      </c>
+      <c r="Q54">
+        <v>-252.96199999999999</v>
+      </c>
+      <c r="R54">
+        <v>41639</v>
+      </c>
+      <c r="S54">
+        <v>597</v>
+      </c>
+      <c r="T54">
+        <v>4855.6790000000001</v>
+      </c>
+      <c r="U54">
+        <v>148.768</v>
+      </c>
+      <c r="V54">
+        <v>36.194000000000003</v>
+      </c>
+      <c r="W54">
+        <v>0</v>
+      </c>
+      <c r="X54">
+        <v>-291.10500000000002</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>49.478999999999999</v>
+      </c>
+      <c r="AA54">
+        <v>61.609000000000002</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>41729</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>87</v>
+      </c>
+      <c r="D55">
+        <v>229.892</v>
+      </c>
+      <c r="E55">
+        <v>158.52799999999999</v>
+      </c>
+      <c r="F55">
+        <v>171.161</v>
+      </c>
+      <c r="G55">
+        <v>463.339</v>
+      </c>
+      <c r="H55">
+        <v>9833.6970000000001</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>4380.3459999999995</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>-78.528999999999996</v>
+      </c>
+      <c r="N55">
+        <v>104.67</v>
+      </c>
+      <c r="O55">
+        <v>5000.0479999999998</v>
+      </c>
+      <c r="P55">
+        <v>4380.3459999999995</v>
+      </c>
+      <c r="Q55">
+        <v>120.143</v>
+      </c>
+      <c r="R55">
+        <v>41729</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>4833.6490000000003</v>
+      </c>
+      <c r="U55">
+        <v>268.911</v>
+      </c>
+      <c r="V55">
+        <v>181.51300000000001</v>
+      </c>
+      <c r="W55">
+        <v>-106.762</v>
+      </c>
+      <c r="X55">
+        <v>-55.543999999999997</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>33.262</v>
+      </c>
+      <c r="AA55">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>41820</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
+        <v>89.512</v>
+      </c>
+      <c r="D56">
+        <v>246.386</v>
+      </c>
+      <c r="E56">
+        <v>162.148</v>
+      </c>
+      <c r="F56">
+        <v>183.185</v>
+      </c>
+      <c r="G56">
+        <v>463.13099999999997</v>
+      </c>
+      <c r="H56">
+        <v>10190.371999999999</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>4730.3710000000001</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>104.786</v>
+      </c>
+      <c r="O56">
+        <v>5350.29</v>
+      </c>
+      <c r="P56">
+        <v>4730.3710000000001</v>
+      </c>
+      <c r="Q56">
+        <v>-76.727999999999994</v>
+      </c>
+      <c r="R56">
+        <v>41820</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>4840.0820000000003</v>
+      </c>
+      <c r="U56">
+        <v>192.18299999999999</v>
+      </c>
+      <c r="V56">
+        <v>144.584</v>
+      </c>
+      <c r="W56">
+        <v>-106.937</v>
+      </c>
+      <c r="X56">
+        <v>-55.158999999999999</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>41.048999999999999</v>
+      </c>
+      <c r="AA56">
+        <v>89.512</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>41912</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57">
+        <v>194.708</v>
+      </c>
+      <c r="D57">
+        <v>255.65100000000001</v>
+      </c>
+      <c r="E57">
+        <v>161.15799999999999</v>
+      </c>
+      <c r="F57">
+        <v>190.06100000000001</v>
+      </c>
+      <c r="G57">
+        <v>367.14800000000002</v>
+      </c>
+      <c r="H57">
+        <v>10293.210999999999</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>4697.317</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>104.858</v>
+      </c>
+      <c r="O57">
+        <v>5366.1009999999997</v>
+      </c>
+      <c r="P57">
+        <v>4697.317</v>
+      </c>
+      <c r="Q57">
+        <v>-37.993000000000002</v>
+      </c>
+      <c r="R57">
+        <v>41912</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>4927.1099999999997</v>
+      </c>
+      <c r="U57">
+        <v>154.19</v>
+      </c>
+      <c r="V57">
+        <v>183.90799999999999</v>
+      </c>
+      <c r="W57">
+        <v>-107.05</v>
+      </c>
+      <c r="X57">
+        <v>-321.78699999999998</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>18.8</v>
+      </c>
+      <c r="AA57">
+        <v>194.708</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>42004</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <v>52.780999999999999</v>
+      </c>
+      <c r="D58">
+        <v>265.09800000000001</v>
+      </c>
+      <c r="E58">
+        <v>172.386</v>
+      </c>
+      <c r="F58">
+        <v>194.00299999999999</v>
+      </c>
+      <c r="G58">
+        <v>359.70800000000003</v>
+      </c>
+      <c r="H58">
+        <v>10261.4</v>
+      </c>
+      <c r="I58">
+        <v>129.50899999999999</v>
+      </c>
+      <c r="J58">
+        <v>4595.97</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>240.65199999999999</v>
+      </c>
+      <c r="O58">
+        <v>5268.1549999999997</v>
+      </c>
+      <c r="P58">
+        <v>4595.97</v>
+      </c>
+      <c r="Q58">
+        <v>33.131999999999998</v>
+      </c>
+      <c r="R58">
+        <v>42004</v>
+      </c>
+      <c r="S58">
+        <v>580</v>
+      </c>
+      <c r="T58">
+        <v>4993.2449999999999</v>
+      </c>
+      <c r="U58">
+        <v>187.322</v>
+      </c>
+      <c r="V58">
+        <v>119.33799999999999</v>
+      </c>
+      <c r="W58">
+        <v>-107.124</v>
+      </c>
+      <c r="X58">
+        <v>-285.00400000000002</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>39.942999999999998</v>
+      </c>
+      <c r="AA58">
+        <v>52.780999999999999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>42094</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
+        <v>310.34199999999998</v>
+      </c>
+      <c r="D59">
+        <v>284.59199999999998</v>
+      </c>
+      <c r="E59">
+        <v>178.36699999999999</v>
+      </c>
+      <c r="F59">
+        <v>211.06399999999999</v>
+      </c>
+      <c r="G59">
+        <v>406.54399999999998</v>
+      </c>
+      <c r="H59">
+        <v>11733.888000000001</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>5721.2510000000002</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>-556.44100000000003</v>
+      </c>
+      <c r="N59">
+        <v>111.357</v>
+      </c>
+      <c r="O59">
+        <v>6435.4290000000001</v>
+      </c>
+      <c r="P59">
+        <v>5721.2510000000002</v>
+      </c>
+      <c r="Q59">
+        <v>33.655000000000001</v>
+      </c>
+      <c r="R59">
+        <v>42094</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>5298.4589999999998</v>
+      </c>
+      <c r="U59">
+        <v>220.977</v>
+      </c>
+      <c r="V59">
+        <v>163.09</v>
+      </c>
+      <c r="W59">
+        <v>-113.4</v>
+      </c>
+      <c r="X59">
+        <v>478.02100000000002</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>-119.65300000000001</v>
+      </c>
+      <c r="AA59">
+        <v>310.34199999999998</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>42185</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60">
+        <v>127</v>
+      </c>
+      <c r="D60">
+        <v>294.97699999999998</v>
+      </c>
+      <c r="E60">
+        <v>177.768</v>
+      </c>
+      <c r="F60">
+        <v>219.15600000000001</v>
+      </c>
+      <c r="G60">
+        <v>376.9</v>
+      </c>
+      <c r="H60">
+        <v>11467.304</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>5537.7719999999999</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>112.804</v>
+      </c>
+      <c r="O60">
+        <v>6240.3239999999996</v>
+      </c>
+      <c r="P60">
+        <v>5539.1210000000001</v>
+      </c>
+      <c r="Q60">
+        <v>-75.144999999999996</v>
+      </c>
+      <c r="R60">
+        <v>42185</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>5226.9799999999996</v>
+      </c>
+      <c r="U60">
+        <v>145.83199999999999</v>
+      </c>
+      <c r="V60">
+        <v>122.905</v>
+      </c>
+      <c r="W60">
+        <v>-113.623</v>
+      </c>
+      <c r="X60">
+        <v>-326.02499999999998</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>69.436000000000007</v>
+      </c>
+      <c r="AA60">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>42277</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61">
+        <v>77.572000000000003</v>
+      </c>
+      <c r="D61">
+        <v>288.827</v>
+      </c>
+      <c r="E61">
+        <v>172.75800000000001</v>
+      </c>
+      <c r="F61">
+        <v>214.428</v>
+      </c>
+      <c r="G61">
+        <v>377.07100000000003</v>
+      </c>
+      <c r="H61">
+        <v>11413.984</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>5498.5860000000002</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>113.35899999999999</v>
+      </c>
+      <c r="O61">
+        <v>6231.5870000000004</v>
+      </c>
+      <c r="P61">
+        <v>5500.4650000000001</v>
+      </c>
+      <c r="Q61">
+        <v>35.081000000000003</v>
+      </c>
+      <c r="R61">
+        <v>42277</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>5182.3969999999999</v>
+      </c>
+      <c r="U61">
+        <v>180.91300000000001</v>
+      </c>
+      <c r="V61">
+        <v>176.64699999999999</v>
+      </c>
+      <c r="W61">
+        <v>-113.72199999999999</v>
+      </c>
+      <c r="X61">
+        <v>-155.56399999999999</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>36.685000000000002</v>
+      </c>
+      <c r="AA61">
+        <v>77.572000000000003</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>42369</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62">
+        <v>379.20100000000002</v>
+      </c>
+      <c r="D62">
+        <v>301.31299999999999</v>
+      </c>
+      <c r="E62">
+        <v>175.25200000000001</v>
+      </c>
+      <c r="F62">
+        <v>220.584</v>
+      </c>
+      <c r="G62">
+        <v>364.786</v>
+      </c>
+      <c r="H62">
+        <v>11344.171</v>
+      </c>
+      <c r="I62">
+        <v>150.059</v>
+      </c>
+      <c r="J62">
+        <v>5376.31</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>265.24099999999999</v>
+      </c>
+      <c r="O62">
+        <v>6075.5110000000004</v>
+      </c>
+      <c r="P62">
+        <v>5376.31</v>
+      </c>
+      <c r="Q62">
+        <v>8.6210000000000004</v>
+      </c>
+      <c r="R62">
+        <v>42369</v>
+      </c>
+      <c r="S62">
+        <v>546</v>
+      </c>
+      <c r="T62">
+        <v>5268.66</v>
+      </c>
+      <c r="U62">
+        <v>189.53399999999999</v>
+      </c>
+      <c r="V62">
+        <v>31.059000000000001</v>
+      </c>
+      <c r="W62">
+        <v>-115.08799999999999</v>
+      </c>
+      <c r="X62">
+        <v>-509.286</v>
+      </c>
+      <c r="Y62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>404.03100000000001</v>
+      </c>
+      <c r="AA62">
+        <v>379.20100000000002</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>42460</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63">
+        <v>140.71299999999999</v>
+      </c>
+      <c r="D63">
+        <v>297.202</v>
+      </c>
+      <c r="E63">
+        <v>174.005</v>
+      </c>
+      <c r="F63">
+        <v>225.35900000000001</v>
+      </c>
+      <c r="G63">
+        <v>396.005</v>
+      </c>
+      <c r="H63">
+        <v>11249.361000000001</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>5162.4620000000004</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>-407.17599999999999</v>
+      </c>
+      <c r="N63">
+        <v>118.66</v>
+      </c>
+      <c r="O63">
+        <v>5845.299</v>
+      </c>
+      <c r="P63">
+        <v>5164.491</v>
+      </c>
+      <c r="Q63">
+        <v>32.466000000000001</v>
+      </c>
+      <c r="R63">
+        <v>42460</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>5404.0619999999999</v>
+      </c>
+      <c r="U63">
+        <v>222</v>
+      </c>
+      <c r="V63">
+        <v>136.95599999999999</v>
+      </c>
+      <c r="W63">
+        <v>-117.03</v>
+      </c>
+      <c r="X63">
+        <v>-232.292</v>
+      </c>
+      <c r="Y63">
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>106.30500000000001</v>
+      </c>
+      <c r="AA63">
+        <v>140.71299999999999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>42551</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64">
+        <v>203.40899999999999</v>
+      </c>
+      <c r="D64">
+        <v>291.488</v>
+      </c>
+      <c r="E64">
+        <v>172.702</v>
+      </c>
+      <c r="F64">
+        <v>219.74600000000001</v>
+      </c>
+      <c r="G64">
+        <v>519.51700000000005</v>
+      </c>
+      <c r="H64">
+        <v>11392.432000000001</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>5188.817</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>119.042</v>
+      </c>
+      <c r="O64">
+        <v>5860.973</v>
+      </c>
+      <c r="P64">
+        <v>5191.0020000000004</v>
+      </c>
+      <c r="Q64">
+        <v>115.815</v>
+      </c>
+      <c r="R64">
+        <v>42551</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>5531.4589999999998</v>
+      </c>
+      <c r="U64">
+        <v>337.815</v>
+      </c>
+      <c r="V64">
+        <v>78.891000000000005</v>
+      </c>
+      <c r="W64">
+        <v>-118.428</v>
+      </c>
+      <c r="X64">
+        <v>-146.62299999999999</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>220.53399999999999</v>
+      </c>
+      <c r="AA64">
+        <v>203.40899999999999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>42643</v>
+      </c>
+      <c r="B65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65">
+        <v>-43.545000000000002</v>
+      </c>
+      <c r="D65">
+        <v>285.07600000000002</v>
+      </c>
+      <c r="E65">
+        <v>171.47399999999999</v>
+      </c>
+      <c r="F65">
+        <v>212.05500000000001</v>
+      </c>
+      <c r="G65">
+        <v>355.41899999999998</v>
+      </c>
+      <c r="H65">
+        <v>11206.102000000001</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>5000.0410000000002</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>119.994</v>
+      </c>
+      <c r="O65">
+        <v>5687.2839999999997</v>
+      </c>
+      <c r="P65">
+        <v>5001.8990000000003</v>
+      </c>
+      <c r="Q65">
+        <v>-167.27</v>
+      </c>
+      <c r="R65">
+        <v>42643</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>5518.8180000000002</v>
+      </c>
+      <c r="U65">
+        <v>170.54499999999999</v>
+      </c>
+      <c r="V65">
+        <v>228.679</v>
+      </c>
+      <c r="W65">
+        <v>-118.654</v>
+      </c>
+      <c r="X65">
+        <v>-332.84300000000002</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>30.719000000000001</v>
+      </c>
+      <c r="AA65">
+        <v>-43.545000000000002</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>42735</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66">
+        <v>78.272999999999996</v>
+      </c>
+      <c r="D66">
+        <v>297.02600000000001</v>
+      </c>
+      <c r="E66">
+        <v>181.82300000000001</v>
+      </c>
+      <c r="F66">
+        <v>215.114</v>
+      </c>
+      <c r="G66">
+        <v>324.30900000000003</v>
+      </c>
+      <c r="H66">
+        <v>11230.6</v>
+      </c>
+      <c r="I66">
+        <v>145.751</v>
+      </c>
+      <c r="J66">
+        <v>5066.3680000000004</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>270.26799999999997</v>
+      </c>
+      <c r="O66">
+        <v>5740.7730000000001</v>
+      </c>
+      <c r="P66">
+        <v>5066.3680000000004</v>
+      </c>
+      <c r="Q66">
+        <v>-28.059000000000001</v>
+      </c>
+      <c r="R66">
+        <v>42735</v>
+      </c>
+      <c r="S66">
+        <v>551</v>
+      </c>
+      <c r="T66">
+        <v>5489.8270000000002</v>
+      </c>
+      <c r="U66">
+        <v>142.48599999999999</v>
+      </c>
+      <c r="V66">
+        <v>147.57</v>
+      </c>
+      <c r="W66">
+        <v>-119.93300000000001</v>
+      </c>
+      <c r="X66">
+        <v>-92.769000000000005</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>-31.221</v>
+      </c>
+      <c r="AA66">
+        <v>78.272999999999996</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>42825</v>
+      </c>
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67">
+        <v>76.733000000000004</v>
+      </c>
+      <c r="D67">
+        <v>293.58800000000002</v>
+      </c>
+      <c r="E67">
+        <v>176.054</v>
+      </c>
+      <c r="F67">
+        <v>209.96199999999999</v>
+      </c>
+      <c r="G67">
+        <v>346.108</v>
+      </c>
+      <c r="H67">
+        <v>11248.419</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>5124.8829999999998</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>-328.68599999999998</v>
+      </c>
+      <c r="N67">
+        <v>124.68</v>
+      </c>
+      <c r="O67">
+        <v>5791.8419999999996</v>
+      </c>
+      <c r="P67">
+        <v>5124.8829999999998</v>
+      </c>
+      <c r="Q67">
+        <v>24.968</v>
+      </c>
+      <c r="R67">
+        <v>42825</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>5456.5770000000002</v>
+      </c>
+      <c r="U67">
+        <v>167.45400000000001</v>
+      </c>
+      <c r="V67">
+        <v>157.05199999999999</v>
+      </c>
+      <c r="W67">
+        <v>-126.315</v>
+      </c>
+      <c r="X67">
+        <v>-66.709000000000003</v>
+      </c>
+      <c r="Y67">
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <v>0.77100000000000002</v>
+      </c>
+      <c r="AA67">
+        <v>76.733000000000004</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>42916</v>
+      </c>
+      <c r="B68" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68">
+        <v>143.416</v>
+      </c>
+      <c r="D68">
+        <v>297.17599999999999</v>
+      </c>
+      <c r="E68">
+        <v>176.90700000000001</v>
+      </c>
+      <c r="F68">
+        <v>212.96100000000001</v>
+      </c>
+      <c r="G68">
+        <v>320.00599999999997</v>
+      </c>
+      <c r="H68">
+        <v>11558.32</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>5390.18</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>124.679</v>
+      </c>
+      <c r="O68">
+        <v>6036.6559999999999</v>
+      </c>
+      <c r="P68">
+        <v>5390.18</v>
+      </c>
+      <c r="Q68">
+        <v>-24.355</v>
+      </c>
+      <c r="R68">
+        <v>42916</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>5521.6639999999998</v>
+      </c>
+      <c r="U68">
+        <v>143.09899999999999</v>
+      </c>
+      <c r="V68">
+        <v>142.982</v>
+      </c>
+      <c r="W68">
+        <v>-126.47799999999999</v>
+      </c>
+      <c r="X68">
+        <v>-85.269000000000005</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>23.524000000000001</v>
+      </c>
+      <c r="AA68">
+        <v>143.416</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>43008</v>
+      </c>
+      <c r="B69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69">
+        <v>121.03</v>
+      </c>
+      <c r="D69">
+        <v>294.84500000000003</v>
+      </c>
+      <c r="E69">
+        <v>182.012</v>
+      </c>
+      <c r="F69">
+        <v>213.45599999999999</v>
+      </c>
+      <c r="G69">
+        <v>353.5</v>
+      </c>
+      <c r="H69">
+        <v>11702.241</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>5551.2709999999997</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>123.27</v>
+      </c>
+      <c r="O69">
+        <v>6277.9579999999996</v>
+      </c>
+      <c r="P69">
+        <v>5551.2709999999997</v>
+      </c>
+      <c r="Q69">
+        <v>13.489000000000001</v>
+      </c>
+      <c r="R69">
+        <v>43008</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <v>5424.2830000000004</v>
+      </c>
+      <c r="U69">
+        <v>156.58799999999999</v>
+      </c>
+      <c r="V69">
+        <v>193.78200000000001</v>
+      </c>
+      <c r="W69">
+        <v>-128.38900000000001</v>
+      </c>
+      <c r="X69">
+        <v>-49.463999999999999</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <v>-1.0860000000000001</v>
+      </c>
+      <c r="AA69">
+        <v>121.03</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>43100</v>
+      </c>
+      <c r="B70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70">
+        <v>84.896000000000001</v>
+      </c>
+      <c r="D70">
+        <v>315.22500000000002</v>
+      </c>
+      <c r="E70">
+        <v>189.75700000000001</v>
+      </c>
+      <c r="F70">
+        <v>226.56200000000001</v>
+      </c>
+      <c r="G70">
+        <v>450.67</v>
+      </c>
+      <c r="H70">
+        <v>11763.726000000001</v>
+      </c>
+      <c r="I70">
+        <v>185.702</v>
+      </c>
+      <c r="J70">
+        <v>5478.9269999999997</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>314.59399999999999</v>
+      </c>
+      <c r="O70">
+        <v>6225.4359999999997</v>
+      </c>
+      <c r="P70">
+        <v>5478.9269999999997</v>
+      </c>
+      <c r="Q70">
+        <v>81.924999999999997</v>
+      </c>
+      <c r="R70">
+        <v>43100</v>
+      </c>
+      <c r="S70">
+        <v>546</v>
+      </c>
+      <c r="T70">
+        <v>5538.29</v>
+      </c>
+      <c r="U70">
+        <v>238.51300000000001</v>
+      </c>
+      <c r="V70">
+        <v>120.36499999999999</v>
+      </c>
+      <c r="W70">
+        <v>-124.99</v>
+      </c>
+      <c r="X70">
+        <v>-22.431999999999999</v>
+      </c>
+      <c r="Y70">
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <v>30.706</v>
+      </c>
+      <c r="AA70">
+        <v>84.896000000000001</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>43190</v>
+      </c>
+      <c r="B71" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71">
+        <v>144.09</v>
+      </c>
+      <c r="D71">
+        <v>304.07799999999997</v>
+      </c>
+      <c r="E71">
+        <v>184.53299999999999</v>
+      </c>
+      <c r="F71">
+        <v>217.495</v>
+      </c>
+      <c r="G71">
+        <v>408.346</v>
+      </c>
+      <c r="H71">
+        <v>11372.502</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>5097.3220000000001</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>-165.03200000000001</v>
+      </c>
+      <c r="N71">
+        <v>132.209</v>
+      </c>
+      <c r="O71">
+        <v>5853.9539999999997</v>
+      </c>
+      <c r="P71">
+        <v>5097.3220000000001</v>
+      </c>
+      <c r="Q71">
+        <v>-20.2</v>
+      </c>
+      <c r="R71">
+        <v>43190</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>5518.5479999999998</v>
+      </c>
+      <c r="U71">
+        <v>218.31299999999999</v>
+      </c>
+      <c r="V71">
+        <v>192.279</v>
+      </c>
+      <c r="W71">
+        <v>-130.24100000000001</v>
+      </c>
+      <c r="X71">
+        <v>-291.90499999999997</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>-2.2949999999999999</v>
+      </c>
+      <c r="AA71">
+        <v>144.09</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
+        <v>43281</v>
+      </c>
+      <c r="B72" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72">
+        <v>165.386</v>
+      </c>
+      <c r="D72">
+        <v>293.40300000000002</v>
+      </c>
+      <c r="E72">
+        <v>180.45099999999999</v>
+      </c>
+      <c r="F72">
+        <v>212.06200000000001</v>
+      </c>
+      <c r="G72">
+        <v>501.72800000000001</v>
+      </c>
+      <c r="H72">
+        <v>11291.782999999999</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>5068.7160000000003</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>130.262</v>
+      </c>
+      <c r="O72">
+        <v>5786.6540000000005</v>
+      </c>
+      <c r="P72">
+        <v>5068.7160000000003</v>
+      </c>
+      <c r="Q72">
+        <v>87.263999999999996</v>
+      </c>
+      <c r="R72">
+        <v>43281</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>5505.1289999999999</v>
+      </c>
+      <c r="U72">
+        <v>305.577</v>
+      </c>
+      <c r="V72">
+        <v>159.70699999999999</v>
+      </c>
+      <c r="W72">
+        <v>-134.47</v>
+      </c>
+      <c r="X72">
+        <v>-221.16800000000001</v>
+      </c>
+      <c r="Y72">
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <v>2.44</v>
+      </c>
+      <c r="AA72">
+        <v>165.386</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
+        <v>43373</v>
+      </c>
+      <c r="B73" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73">
+        <v>100.158</v>
+      </c>
+      <c r="D73">
+        <v>283.08</v>
+      </c>
+      <c r="E73">
+        <v>183.44</v>
+      </c>
+      <c r="F73">
+        <v>203.251</v>
+      </c>
+      <c r="G73">
+        <v>361.02600000000001</v>
+      </c>
+      <c r="H73">
+        <v>11109.521000000001</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>4887.4740000000002</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>130.26300000000001</v>
+      </c>
+      <c r="O73">
+        <v>5633.35</v>
+      </c>
+      <c r="P73">
+        <v>4887.4740000000002</v>
+      </c>
+      <c r="Q73">
+        <v>-159.191</v>
+      </c>
+      <c r="R73">
+        <v>43373</v>
+      </c>
+      <c r="S73">
+        <v>0</v>
+      </c>
+      <c r="T73">
+        <v>5476.1710000000003</v>
+      </c>
+      <c r="U73">
+        <v>146.386</v>
+      </c>
+      <c r="V73">
+        <v>164.345</v>
+      </c>
+      <c r="W73">
+        <v>-132.52099999999999</v>
+      </c>
+      <c r="X73">
+        <v>-326.14</v>
+      </c>
+      <c r="Y73">
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <v>-8.1999999999999993</v>
+      </c>
+      <c r="AA73">
+        <v>100.158</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A74" s="1">
+        <v>43465</v>
+      </c>
+      <c r="B74" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74">
+        <v>88.161000000000001</v>
+      </c>
+      <c r="D74">
+        <v>284.20100000000002</v>
+      </c>
+      <c r="E74">
+        <v>184.52799999999999</v>
+      </c>
+      <c r="F74">
+        <v>203.39500000000001</v>
+      </c>
+      <c r="G74">
+        <v>345.30900000000003</v>
+      </c>
+      <c r="H74">
+        <v>10999.1</v>
+      </c>
+      <c r="I74">
+        <v>174.90299999999999</v>
+      </c>
+      <c r="J74">
+        <v>4873.8720000000003</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>305.16500000000002</v>
+      </c>
+      <c r="O74">
+        <v>5564.3649999999998</v>
+      </c>
+      <c r="P74">
+        <v>4873.8720000000003</v>
+      </c>
+      <c r="Q74">
+        <v>-2.8050000000000002</v>
+      </c>
+      <c r="R74">
+        <v>43465</v>
+      </c>
+      <c r="S74">
+        <v>533</v>
+      </c>
+      <c r="T74">
+        <v>5434.7349999999997</v>
+      </c>
+      <c r="U74">
+        <v>143.58099999999999</v>
+      </c>
+      <c r="V74">
+        <v>121.605</v>
+      </c>
+      <c r="W74">
+        <v>-132.524</v>
+      </c>
+      <c r="X74">
+        <v>-147.30000000000001</v>
+      </c>
+      <c r="Y74">
+        <v>0</v>
+      </c>
+      <c r="Z74">
+        <v>5.4340000000000002</v>
+      </c>
+      <c r="AA74">
+        <v>88.161000000000001</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A75" s="1">
+        <v>43555</v>
+      </c>
+      <c r="B75" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75">
+        <v>116.169</v>
+      </c>
+      <c r="D75">
+        <v>295.01</v>
+      </c>
+      <c r="E75">
+        <v>183.65</v>
+      </c>
+      <c r="F75">
+        <v>212.07499999999999</v>
+      </c>
+      <c r="G75">
+        <v>331.923</v>
+      </c>
+      <c r="H75">
+        <v>11070.2</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>4868.7539999999999</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>-6.3609999999999998</v>
+      </c>
+      <c r="N75">
+        <v>130.44399999999999</v>
+      </c>
+      <c r="O75">
+        <v>5649.6580000000004</v>
+      </c>
+      <c r="P75">
+        <v>4965.8869999999997</v>
+      </c>
+      <c r="Q75">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="R75">
+        <v>43555</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>5420.5420000000004</v>
+      </c>
+      <c r="U75">
+        <v>143.673</v>
+      </c>
+      <c r="V75">
+        <v>155.25800000000001</v>
+      </c>
+      <c r="W75">
+        <v>-132.52099999999999</v>
+      </c>
+      <c r="X75">
+        <v>-139.624</v>
+      </c>
+      <c r="Y75">
+        <v>97.132999999999996</v>
+      </c>
+      <c r="Z75">
+        <v>-11.092000000000001</v>
+      </c>
+      <c r="AA75">
+        <v>116.169</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A76" s="1">
+        <v>43646</v>
+      </c>
+      <c r="B76" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76">
+        <v>101.027</v>
+      </c>
+      <c r="D76">
+        <v>284.87299999999999</v>
+      </c>
+      <c r="E76">
+        <v>182.369</v>
+      </c>
+      <c r="F76">
+        <v>201.727</v>
+      </c>
+      <c r="G76">
+        <v>339.06</v>
+      </c>
+      <c r="H76">
+        <v>11040.903</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>4905.5020000000004</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>130.46</v>
+      </c>
+      <c r="O76">
+        <v>5649.7520000000004</v>
+      </c>
+      <c r="P76">
+        <v>4998.7349999999997</v>
+      </c>
+      <c r="Q76">
+        <v>-29.681999999999999</v>
+      </c>
+      <c r="R76">
+        <v>43646</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>5391.1509999999998</v>
+      </c>
+      <c r="U76">
+        <v>113.991</v>
+      </c>
+      <c r="V76">
+        <v>158.27099999999999</v>
+      </c>
+      <c r="W76">
+        <v>-132.70500000000001</v>
+      </c>
+      <c r="X76">
+        <v>-102.976</v>
+      </c>
+      <c r="Y76">
+        <v>93.233000000000004</v>
+      </c>
+      <c r="Z76">
+        <v>-6.1509999999999998</v>
+      </c>
+      <c r="AA76">
+        <v>101.027</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A77" s="1">
+        <v>43738</v>
+      </c>
+      <c r="B77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77">
+        <v>83.99</v>
+      </c>
+      <c r="D77">
+        <v>282.87099999999998</v>
+      </c>
+      <c r="E77">
+        <v>191.43600000000001</v>
+      </c>
+      <c r="F77">
+        <v>202.75800000000001</v>
+      </c>
+      <c r="G77">
+        <v>369.64600000000002</v>
+      </c>
+      <c r="H77">
+        <v>11085.130999999999</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>5312.6279999999997</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>126.203</v>
+      </c>
+      <c r="O77">
+        <v>6086.9669999999996</v>
+      </c>
+      <c r="P77">
+        <v>5404.2489999999998</v>
+      </c>
+      <c r="Q77">
+        <v>27.318999999999999</v>
+      </c>
+      <c r="R77">
+        <v>43738</v>
+      </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
+      <c r="T77">
+        <v>4998.1639999999998</v>
+      </c>
+      <c r="U77">
+        <v>141.31</v>
+      </c>
+      <c r="V77">
+        <v>168.93</v>
+      </c>
+      <c r="W77">
+        <v>-136.054</v>
+      </c>
+      <c r="X77">
+        <v>-80.822999999999993</v>
+      </c>
+      <c r="Y77">
+        <v>91.620999999999995</v>
+      </c>
+      <c r="Z77">
+        <v>-1.9790000000000001</v>
+      </c>
+      <c r="AA77">
+        <v>83.99</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A78" s="1">
+        <v>43830</v>
+      </c>
+      <c r="B78" t="s">
+        <v>103</v>
+      </c>
+      <c r="C78">
+        <v>109.419</v>
+      </c>
+      <c r="D78">
+        <v>296.13</v>
+      </c>
+      <c r="E78">
+        <v>218.68899999999999</v>
+      </c>
+      <c r="F78">
+        <v>205.37299999999999</v>
+      </c>
+      <c r="G78">
+        <v>342.63600000000002</v>
+      </c>
+      <c r="H78">
+        <v>10997.867</v>
+      </c>
+      <c r="I78">
+        <v>170.08199999999999</v>
+      </c>
+      <c r="J78">
+        <v>5315.7669999999998</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>296.35599999999999</v>
+      </c>
+      <c r="O78">
+        <v>6051.0169999999998</v>
+      </c>
+      <c r="P78">
+        <v>5408.4780000000001</v>
+      </c>
+      <c r="Q78">
+        <v>-17.363</v>
+      </c>
+      <c r="R78">
+        <v>43830</v>
+      </c>
+      <c r="S78">
+        <v>502</v>
+      </c>
+      <c r="T78">
+        <v>4946.8500000000004</v>
+      </c>
+      <c r="U78">
+        <v>123.947</v>
+      </c>
+      <c r="V78">
+        <v>101.169</v>
+      </c>
+      <c r="W78">
+        <v>-130.285</v>
+      </c>
+      <c r="X78">
+        <v>-159.41800000000001</v>
+      </c>
+      <c r="Y78">
+        <v>92.710999999999999</v>
+      </c>
+      <c r="Z78">
+        <v>5.7389999999999999</v>
+      </c>
+      <c r="AA78">
+        <v>109.419</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A79" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B79" t="s">
+        <v>104</v>
+      </c>
+      <c r="C79">
+        <v>90.1</v>
+      </c>
+      <c r="D79">
+        <v>289.74400000000003</v>
+      </c>
+      <c r="E79">
+        <v>220.215</v>
+      </c>
+      <c r="F79">
+        <v>204.84899999999999</v>
+      </c>
+      <c r="G79">
+        <v>673.31100000000004</v>
+      </c>
+      <c r="H79">
+        <v>11305.134</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>5708.5349999999999</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>-78.423000000000002</v>
+      </c>
+      <c r="N79">
+        <v>126.473</v>
+      </c>
+      <c r="O79">
+        <v>6414.7219999999998</v>
+      </c>
+      <c r="P79">
+        <v>5800.0810000000001</v>
+      </c>
+      <c r="Q79">
+        <v>327.84899999999999</v>
+      </c>
+      <c r="R79">
+        <v>43921</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <v>4890.4120000000003</v>
+      </c>
+      <c r="U79">
+        <v>451.79599999999999</v>
+      </c>
+      <c r="V79">
+        <v>155.249</v>
+      </c>
+      <c r="W79">
+        <v>-127.255</v>
+      </c>
+      <c r="X79">
+        <v>239.15299999999999</v>
+      </c>
+      <c r="Y79">
+        <v>91.546000000000006</v>
+      </c>
+      <c r="Z79">
+        <v>-3.6829999999999998</v>
+      </c>
+      <c r="AA79">
+        <v>90.1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A80" s="1">
+        <v>44012</v>
+      </c>
+      <c r="B80" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80">
+        <v>747.89300000000003</v>
+      </c>
+      <c r="D80">
+        <v>238.916</v>
+      </c>
+      <c r="E80">
+        <v>250.15</v>
+      </c>
+      <c r="F80">
+        <v>158.471</v>
+      </c>
+      <c r="G80">
+        <v>451.83699999999999</v>
+      </c>
+      <c r="H80">
+        <v>11559.97</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>5350.3779999999997</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>5.3659999999999997</v>
+      </c>
+      <c r="O80">
+        <v>5923.6530000000002</v>
+      </c>
+      <c r="P80">
+        <v>5440.7420000000002</v>
+      </c>
+      <c r="Q80">
+        <v>-250.10900000000001</v>
+      </c>
+      <c r="R80">
+        <v>44012</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <v>5636.317</v>
+      </c>
+      <c r="U80">
+        <v>201.68700000000001</v>
+      </c>
+      <c r="V80">
+        <v>82.197999999999993</v>
+      </c>
+      <c r="W80">
+        <v>-127.461</v>
+      </c>
+      <c r="X80">
+        <v>-495.45699999999999</v>
+      </c>
+      <c r="Y80">
+        <v>90.364000000000004</v>
+      </c>
+      <c r="Z80">
+        <v>224.56299999999999</v>
+      </c>
+      <c r="AA80">
+        <v>747.89300000000003</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A81" s="1">
+        <v>44104</v>
+      </c>
+      <c r="B81" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81">
+        <v>-38.393999999999998</v>
+      </c>
+      <c r="D81">
+        <v>259.79199999999997</v>
+      </c>
+      <c r="E81">
+        <v>239.864</v>
+      </c>
+      <c r="F81">
+        <v>173.77799999999999</v>
+      </c>
+      <c r="G81">
+        <v>564.84100000000001</v>
+      </c>
+      <c r="H81">
+        <v>11524.191999999999</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>5357.3779999999997</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>5.3659999999999997</v>
+      </c>
+      <c r="O81">
+        <v>5968.8220000000001</v>
+      </c>
+      <c r="P81">
+        <v>5446.2709999999997</v>
+      </c>
+      <c r="Q81">
+        <v>123.29</v>
+      </c>
+      <c r="R81">
+        <v>44104</v>
+      </c>
+      <c r="S81">
+        <v>0</v>
+      </c>
+      <c r="T81">
+        <v>5555.37</v>
+      </c>
+      <c r="U81">
+        <v>324.97699999999998</v>
+      </c>
+      <c r="V81">
+        <v>228.495</v>
+      </c>
+      <c r="W81">
+        <v>-49.603999999999999</v>
+      </c>
+      <c r="X81">
+        <v>-51.988</v>
+      </c>
+      <c r="Y81">
+        <v>88.893000000000001</v>
+      </c>
+      <c r="Z81">
+        <v>-7.9850000000000003</v>
+      </c>
+      <c r="AA81">
+        <v>-38.393999999999998</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A82" s="1">
+        <v>44196</v>
+      </c>
+      <c r="B82" t="s">
+        <v>107</v>
+      </c>
+      <c r="C82">
         <v>201.23400000000001</v>
       </c>
-      <c r="D42">
+      <c r="D82">
         <v>269.44099999999997</v>
       </c>
-      <c r="E42">
+      <c r="E82">
         <v>219.24799999999999</v>
       </c>
-      <c r="F42">
+      <c r="F82">
         <v>177.82599999999999</v>
       </c>
-      <c r="G42">
+      <c r="G82">
         <v>512.43600000000004</v>
       </c>
-      <c r="H42">
+      <c r="H82">
         <v>11614.498</v>
       </c>
-      <c r="I42">
+      <c r="I82">
         <v>146.45699999999999</v>
       </c>
-      <c r="J42">
+      <c r="J82">
         <v>5355.48</v>
       </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
         <v>163.03200000000001</v>
       </c>
-      <c r="O42">
+      <c r="O82">
         <v>5928.46</v>
       </c>
-      <c r="P42">
+      <c r="P82">
         <v>5452.0990000000002</v>
       </c>
-      <c r="Q42">
+      <c r="Q82">
         <v>-31.789000000000001</v>
       </c>
-      <c r="R42">
+      <c r="R82">
         <v>44196</v>
       </c>
-      <c r="S42">
+      <c r="S82">
         <v>484</v>
       </c>
-      <c r="T42">
+      <c r="T82">
         <v>5686.0379999999996</v>
       </c>
-      <c r="U42">
+      <c r="U82">
         <v>293.18799999999999</v>
       </c>
-      <c r="V42">
+      <c r="V82">
         <v>123.971</v>
       </c>
-      <c r="W42">
+      <c r="W82">
         <v>-75.554000000000002</v>
       </c>
-      <c r="X42">
+      <c r="X82">
         <v>-79.106999999999999</v>
       </c>
-      <c r="Y42">
+      <c r="Y82">
         <v>85.41</v>
       </c>
-      <c r="Z42">
+      <c r="Z82">
         <v>1.94</v>
       </c>
-      <c r="AA42">
+      <c r="AA82">
         <v>201.23400000000001</v>
       </c>
     </row>
